--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_VOC.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>55.06842325592176</v>
+        <v>105.8500830248556</v>
       </c>
       <c r="C2">
-        <v>0.03054018071915725</v>
+        <v>0.05870298210089506</v>
       </c>
       <c r="D2">
-        <v>13.31577882143846</v>
+        <v>25.59500001007034</v>
       </c>
       <c r="E2">
-        <v>1.662768210886217</v>
+        <v>3.196099375416023</v>
       </c>
       <c r="F2">
-        <v>3.092905127449256</v>
+        <v>5.945045185097072</v>
       </c>
       <c r="G2">
-        <v>112.4609113791755</v>
+        <v>216.1673805551818</v>
       </c>
       <c r="H2">
-        <v>0.5724769437122941</v>
+        <v>1.100389813961955</v>
       </c>
       <c r="I2">
-        <v>186.2038039193027</v>
+        <v>357.9127009466837</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>56.5515306738213</v>
+        <v>108.7008463850098</v>
       </c>
       <c r="C3">
-        <v>0.0361957697412234</v>
+        <v>0.06957390471217192</v>
       </c>
       <c r="D3">
-        <v>10.24290678572189</v>
+        <v>19.68846154620794</v>
       </c>
       <c r="E3">
-        <v>2.286306289968548</v>
+        <v>4.39463664119703</v>
       </c>
       <c r="F3">
-        <v>2.682128665209901</v>
+        <v>5.15546887145137</v>
       </c>
       <c r="G3">
-        <v>95.65640737998838</v>
+        <v>183.8665075986602</v>
       </c>
       <c r="H3">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I3">
-        <v>167.7008228260422</v>
+        <v>322.3470905817936</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>57.1318770547385</v>
+        <v>109.8163624824614</v>
       </c>
       <c r="C4">
-        <v>0.04298247656770279</v>
+        <v>0.08261901184570418</v>
       </c>
       <c r="D4">
-        <v>10.92576723810335</v>
+        <v>21.00102564928847</v>
       </c>
       <c r="E4">
-        <v>2.286306289968548</v>
+        <v>4.39463664119703</v>
       </c>
       <c r="F4">
-        <v>2.561312058668916</v>
+        <v>4.923240543908513</v>
       </c>
       <c r="G4">
-        <v>105.9976406102573</v>
+        <v>203.7439678795965</v>
       </c>
       <c r="H4">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I4">
-        <v>179.109450569365</v>
+        <v>344.276249298001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>66.93328259911804</v>
+        <v>128.6561899060891</v>
       </c>
       <c r="C5">
-        <v>0.03845800535004987</v>
+        <v>0.07392227375668269</v>
       </c>
       <c r="D5">
-        <v>15.36436017858283</v>
+        <v>29.53269231931193</v>
       </c>
       <c r="E5">
-        <v>3.117690395411655</v>
+        <v>5.992686328905042</v>
       </c>
       <c r="F5">
-        <v>3.33453834053123</v>
+        <v>6.40950184018278</v>
       </c>
       <c r="G5">
-        <v>111.1682572253919</v>
+        <v>213.6826980200647</v>
       </c>
       <c r="H5">
-        <v>0.654259364242622</v>
+        <v>1.257588358813662</v>
       </c>
       <c r="I5">
-        <v>200.6108461086283</v>
+        <v>385.605279047124</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>65.57914104364451</v>
+        <v>126.0533190120353</v>
       </c>
       <c r="C6">
-        <v>0.03280241632798371</v>
+        <v>0.06305135114540582</v>
       </c>
       <c r="D6">
-        <v>13.65720904762918</v>
+        <v>26.2512820616106</v>
       </c>
       <c r="E6">
-        <v>2.701998342690103</v>
+        <v>5.193661485051032</v>
       </c>
       <c r="F6">
-        <v>3.23788505529844</v>
+        <v>6.2237191781485</v>
       </c>
       <c r="G6">
-        <v>112.4609113791755</v>
+        <v>216.1673805551818</v>
       </c>
       <c r="H6">
-        <v>0.4906945231819662</v>
+        <v>0.9431912691102468</v>
       </c>
       <c r="I6">
-        <v>198.1606418079477</v>
+        <v>380.8956049122828</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>74.67123434468083</v>
+        <v>143.529737872111</v>
       </c>
       <c r="C7">
-        <v>0.03167129852357048</v>
+        <v>0.06087716662315044</v>
       </c>
       <c r="D7">
-        <v>14.68149972620137</v>
+        <v>28.22012821623139</v>
       </c>
       <c r="E7">
-        <v>2.909844369050878</v>
+        <v>5.593173906978037</v>
       </c>
       <c r="F7">
-        <v>2.657965343901704</v>
+        <v>5.109023205942797</v>
       </c>
       <c r="G7">
-        <v>99.5343698413393</v>
+        <v>191.3205552040113</v>
       </c>
       <c r="H7">
-        <v>0.8178242053032772</v>
+        <v>1.571985448517078</v>
       </c>
       <c r="I7">
-        <v>195.3044091290009</v>
+        <v>375.4054810204147</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>82.92504953994776</v>
+        <v>159.3948557025344</v>
       </c>
       <c r="C8">
-        <v>0.02488459169709109</v>
+        <v>0.0478320594896182</v>
       </c>
       <c r="D8">
-        <v>20.14438334525305</v>
+        <v>38.72064104087562</v>
       </c>
       <c r="E8">
-        <v>4.780458606297872</v>
+        <v>9.188785704321058</v>
       </c>
       <c r="F8">
-        <v>2.851271914367283</v>
+        <v>5.480588530011364</v>
       </c>
       <c r="G8">
-        <v>69.80332430431584</v>
+        <v>134.1728568963196</v>
       </c>
       <c r="H8">
-        <v>0.8996066258336051</v>
+        <v>1.729183993368786</v>
       </c>
       <c r="I8">
-        <v>181.4289789277125</v>
+        <v>348.7347439269204</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>96.1440504386175</v>
+        <v>184.8038334778217</v>
       </c>
       <c r="C9">
-        <v>0.01583564926178524</v>
+        <v>0.03043858331157522</v>
       </c>
       <c r="D9">
-        <v>16.73008108334575</v>
+        <v>32.157820525473</v>
       </c>
       <c r="E9">
-        <v>5.819688738101757</v>
+        <v>11.18634781395607</v>
       </c>
       <c r="F9">
-        <v>1.401472635875444</v>
+        <v>2.693848599497111</v>
       </c>
       <c r="G9">
-        <v>60.75474522783042</v>
+        <v>116.7800791505004</v>
       </c>
       <c r="H9">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I9">
-        <v>181.193003455154</v>
+        <v>348.2811623299667</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>107.6864951257486</v>
+        <v>206.9902091938043</v>
       </c>
       <c r="C10">
-        <v>0.01470453145737201</v>
+        <v>0.02826439878931985</v>
       </c>
       <c r="D10">
-        <v>10.58433701191262</v>
+        <v>20.3447435977482</v>
       </c>
       <c r="E10">
-        <v>8.52168708079186</v>
+        <v>16.3800092990071</v>
       </c>
       <c r="F10">
-        <v>0.9423695310196953</v>
+        <v>1.811380954834264</v>
       </c>
       <c r="G10">
-        <v>68.51067015053219</v>
+        <v>131.6881743612027</v>
       </c>
       <c r="H10">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I10">
-        <v>196.423828272523</v>
+        <v>377.5571788950893</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>74.86468313831988</v>
+        <v>143.9015765712615</v>
       </c>
       <c r="C11">
-        <v>0.01922900267502494</v>
+        <v>0.03696113687834134</v>
       </c>
       <c r="D11">
-        <v>5.462883619051676</v>
+        <v>10.50051282464423</v>
       </c>
       <c r="E11">
-        <v>8.313841054431085</v>
+        <v>15.98049687708011</v>
       </c>
       <c r="F11">
-        <v>0.9665328523278921</v>
+        <v>1.857826620342836</v>
       </c>
       <c r="G11">
-        <v>69.80332430431584</v>
+        <v>134.1728568963196</v>
       </c>
       <c r="H11">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I11">
-        <v>159.5940588121821</v>
+        <v>306.76462801623</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>59.38877964719431</v>
+        <v>114.1544806392178</v>
       </c>
       <c r="C12">
-        <v>0.02375347389267786</v>
+        <v>0.04565787496736284</v>
       </c>
       <c r="D12">
-        <v>8.194325428577512</v>
+        <v>15.75076923696636</v>
       </c>
       <c r="E12">
-        <v>6.235380790823309</v>
+        <v>11.98537265781008</v>
       </c>
       <c r="F12">
-        <v>0.6524096753213274</v>
+        <v>1.254032968731414</v>
       </c>
       <c r="G12">
-        <v>96.94906153377202</v>
+        <v>186.3511901337772</v>
       </c>
       <c r="I12">
-        <v>171.4437105495812</v>
+        <v>329.5415035114702</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>52.55358893861386</v>
+        <v>101.0161799358985</v>
       </c>
       <c r="C13">
-        <v>0.02488459169709109</v>
+        <v>0.0478320594896182</v>
       </c>
       <c r="D13">
-        <v>6.145744071433132</v>
+        <v>11.81307692772477</v>
       </c>
       <c r="E13">
-        <v>2.078460263607771</v>
+        <v>3.995124219270027</v>
       </c>
       <c r="F13">
-        <v>0.6765729966295245</v>
+        <v>1.300478634239985</v>
       </c>
       <c r="G13">
-        <v>56.87678276647957</v>
+        <v>109.3260315451493</v>
       </c>
       <c r="I13">
-        <v>118.3560336284609</v>
+        <v>227.4987233217722</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>33.33767543713298</v>
+        <v>64.08020248694422</v>
       </c>
       <c r="C14">
-        <v>0.02036012047943817</v>
+        <v>0.03913532140059672</v>
       </c>
       <c r="D14">
-        <v>4.438592940479485</v>
+        <v>8.531666670023442</v>
       </c>
       <c r="E14">
-        <v>3.117690395411655</v>
+        <v>5.992686328905042</v>
       </c>
       <c r="F14">
-        <v>0.5557563900885381</v>
+        <v>1.06825030669713</v>
       </c>
       <c r="G14">
-        <v>65.92536184296493</v>
+        <v>126.7188092909685</v>
       </c>
       <c r="I14">
-        <v>107.395437126557</v>
+        <v>206.4307504049389</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>21.15040143787158</v>
+        <v>40.65436444045976</v>
       </c>
       <c r="C15">
-        <v>0.02036012047943817</v>
+        <v>0.03913532140059672</v>
       </c>
       <c r="D15">
-        <v>1.024290678572189</v>
+        <v>1.968846154620795</v>
       </c>
       <c r="E15">
-        <v>1.870614237246994</v>
+        <v>3.595611797343024</v>
       </c>
       <c r="F15">
-        <v>0.2657965343901703</v>
+        <v>0.5109023205942798</v>
       </c>
       <c r="G15">
-        <v>47.82820368999419</v>
+        <v>91.93325379933009</v>
       </c>
       <c r="I15">
-        <v>72.15966669855456</v>
+        <v>138.7021138337485</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>10.38175192529673</v>
+        <v>19.95534352107933</v>
       </c>
       <c r="C16">
-        <v>0.01922900267502494</v>
+        <v>0.03696113687834134</v>
       </c>
       <c r="D16">
-        <v>0.3414302261907298</v>
+        <v>0.6562820515402646</v>
       </c>
       <c r="E16">
-        <v>1.454922184525439</v>
+        <v>2.796586953489018</v>
       </c>
       <c r="F16">
-        <v>0.4832664261639461</v>
+        <v>0.9289133101714179</v>
       </c>
       <c r="G16">
-        <v>45.2428953824269</v>
+        <v>86.96388872909607</v>
       </c>
       <c r="H16">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I16">
-        <v>58.0052775678091</v>
+        <v>111.4951742471061</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>7.351054158284635</v>
+        <v>14.12987056772077</v>
       </c>
       <c r="C17">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D17">
-        <v>0.6828604523814595</v>
+        <v>1.312564103080529</v>
       </c>
       <c r="E17">
-        <v>0.8313841054431084</v>
+        <v>1.598049687708011</v>
       </c>
       <c r="F17">
-        <v>0.5074297474721436</v>
+        <v>0.9753589756799882</v>
       </c>
       <c r="G17">
-        <v>43.9502412286433</v>
+        <v>84.4792061939791</v>
       </c>
       <c r="I17">
-        <v>53.33314975246437</v>
+        <v>102.5146171888687</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>5.094151565828831</v>
+        <v>9.791752410964399</v>
       </c>
       <c r="C18">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D18">
-        <v>1.024290678572189</v>
+        <v>1.968846154620795</v>
       </c>
       <c r="F18">
-        <v>0.4349397835475516</v>
+        <v>0.8360219791542759</v>
       </c>
       <c r="G18">
-        <v>38.77962461350879</v>
+        <v>74.54047605351094</v>
       </c>
       <c r="I18">
-        <v>45.33979334828385</v>
+        <v>87.15014170538394</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>4.642771047337667</v>
+        <v>8.924128779613122</v>
       </c>
       <c r="C19">
-        <v>0.01131117804413231</v>
+        <v>0.02174184522255372</v>
       </c>
       <c r="D19">
-        <v>1.024290678572189</v>
+        <v>1.968846154620795</v>
       </c>
       <c r="E19">
-        <v>0.4156920527215542</v>
+        <v>0.7990248438540056</v>
       </c>
       <c r="F19">
-        <v>0.4107764622393542</v>
+        <v>0.7895763136457052</v>
       </c>
       <c r="G19">
-        <v>59.46209107404682</v>
+        <v>114.2953966153834</v>
       </c>
       <c r="I19">
-        <v>65.96693249296172</v>
+        <v>126.7987145523395</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>7.995883470414864</v>
+        <v>15.36933289822259</v>
       </c>
       <c r="C20">
-        <v>0.01131117804413231</v>
+        <v>0.02174184522255372</v>
       </c>
       <c r="D20">
-        <v>1.024290678572189</v>
+        <v>1.968846154620795</v>
       </c>
       <c r="E20">
-        <v>0.8313841054431084</v>
+        <v>1.598049687708011</v>
       </c>
       <c r="F20">
-        <v>0.6282463540131302</v>
+        <v>1.207587303222843</v>
       </c>
       <c r="G20">
-        <v>108.5829489178246</v>
+        <v>208.7133329498306</v>
       </c>
       <c r="H20">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I20">
-        <v>119.1558471248424</v>
+        <v>229.0360893836791</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>26.24455300370041</v>
+        <v>50.44611685142414</v>
       </c>
       <c r="C21">
-        <v>0.01131117804413231</v>
+        <v>0.02174184522255372</v>
       </c>
       <c r="D21">
-        <v>3.414302261907295</v>
+        <v>6.562820515402651</v>
       </c>
       <c r="E21">
-        <v>4.156920527215543</v>
+        <v>7.990248438540054</v>
       </c>
       <c r="F21">
-        <v>0.7490629605541169</v>
+        <v>1.439815630765697</v>
       </c>
       <c r="G21">
-        <v>157.7038067616025</v>
+        <v>303.1312692842775</v>
       </c>
       <c r="H21">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I21">
-        <v>192.3617391135543</v>
+        <v>369.7492111104843</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>58.614984472638</v>
+        <v>112.6671258426156</v>
       </c>
       <c r="C22">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D22">
-        <v>9.218616107149701</v>
+        <v>17.71961539158715</v>
       </c>
       <c r="E22">
-        <v>8.937379133513414</v>
+        <v>17.17903414286112</v>
       </c>
       <c r="F22">
-        <v>2.078045632504968</v>
+        <v>3.994327233737095</v>
       </c>
       <c r="G22">
-        <v>170.6303482994387</v>
+        <v>327.9780946354481</v>
       </c>
       <c r="H22">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I22">
-        <v>249.8155522698014</v>
+        <v>480.184384901834</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>91.50127939127982</v>
+        <v>175.8797046982085</v>
       </c>
       <c r="C23">
-        <v>0.01583564926178524</v>
+        <v>0.03043858331157522</v>
       </c>
       <c r="D23">
-        <v>13.31577882143846</v>
+        <v>25.59500001007034</v>
       </c>
       <c r="E23">
-        <v>8.105995028070307</v>
+        <v>15.5809844551531</v>
       </c>
       <c r="F23">
-        <v>2.295515524278744</v>
+        <v>4.412338223314235</v>
       </c>
       <c r="G23">
-        <v>144.7772652237661</v>
+        <v>278.2844439331074</v>
       </c>
       <c r="H23">
-        <v>0.4906945231819662</v>
+        <v>0.9431912691102468</v>
       </c>
       <c r="I23">
-        <v>260.5023641612772</v>
+        <v>500.7261011722754</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>108.3313244378789</v>
+        <v>208.2296715243062</v>
       </c>
       <c r="C24">
-        <v>0.03393353413239694</v>
+        <v>0.06522553566766119</v>
       </c>
       <c r="D24">
-        <v>15.02292995239211</v>
+        <v>28.87641026777167</v>
       </c>
       <c r="E24">
-        <v>8.729533107152637</v>
+        <v>16.77952172093411</v>
       </c>
       <c r="F24">
-        <v>3.044578484832861</v>
+        <v>5.852153854079932</v>
       </c>
       <c r="G24">
-        <v>140.8993027624153</v>
+        <v>270.8303963277563</v>
       </c>
       <c r="H24">
-        <v>0.5724769437122941</v>
+        <v>1.100389813961955</v>
       </c>
       <c r="I24">
-        <v>276.6340792225165</v>
+        <v>531.7337690444779</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>70.15742915976918</v>
+        <v>134.8535015585983</v>
       </c>
       <c r="C25">
-        <v>0.02262235608826463</v>
+        <v>0.04348369044510745</v>
       </c>
       <c r="D25">
-        <v>15.70579040477356</v>
+        <v>30.18897437085219</v>
       </c>
       <c r="E25">
-        <v>4.572612579937095</v>
+        <v>8.78927328239406</v>
       </c>
       <c r="F25">
-        <v>2.827108593059085</v>
+        <v>5.434142864502792</v>
       </c>
       <c r="G25">
-        <v>149.9478818389006</v>
+        <v>288.2231740735755</v>
       </c>
       <c r="H25">
-        <v>0.654259364242622</v>
+        <v>1.257588358813662</v>
       </c>
       <c r="I25">
-        <v>243.8877042967704</v>
+        <v>468.7901381991816</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>57.71222343565572</v>
+        <v>110.9318785799131</v>
       </c>
       <c r="C26">
-        <v>0.03054018071915725</v>
+        <v>0.05870298210089506</v>
       </c>
       <c r="D26">
-        <v>13.31577882143846</v>
+        <v>25.59500001007034</v>
       </c>
       <c r="E26">
-        <v>1.870614237246994</v>
+        <v>3.595611797343024</v>
       </c>
       <c r="F26">
-        <v>3.479518268380413</v>
+        <v>6.688175833234207</v>
       </c>
       <c r="G26">
-        <v>122.8021446094445</v>
+        <v>236.0448408361179</v>
       </c>
       <c r="H26">
-        <v>0.5724769437122941</v>
+        <v>1.100389813961955</v>
       </c>
       <c r="I26">
-        <v>199.7832964965975</v>
+        <v>384.0145998527414</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>57.51877464201665</v>
+        <v>110.5600398807625</v>
       </c>
       <c r="C27">
-        <v>0.03506465193681018</v>
+        <v>0.06739972018991656</v>
       </c>
       <c r="D27">
-        <v>9.901476559531162</v>
+        <v>19.03217949466768</v>
       </c>
       <c r="E27">
-        <v>2.286306289968548</v>
+        <v>4.39463664119703</v>
       </c>
       <c r="F27">
-        <v>3.793641445386978</v>
+        <v>7.291969484845629</v>
       </c>
       <c r="G27">
-        <v>124.0947987632282</v>
+        <v>238.529523371235</v>
       </c>
       <c r="H27">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I27">
-        <v>197.9571920341896</v>
+        <v>380.5045427723047</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>54.10117928772642</v>
+        <v>103.9908895291028</v>
       </c>
       <c r="C28">
-        <v>0.03054018071915725</v>
+        <v>0.05870298210089506</v>
       </c>
       <c r="D28">
-        <v>10.58433701191262</v>
+        <v>20.3447435977482</v>
       </c>
       <c r="E28">
-        <v>3.53338244813321</v>
+        <v>6.791711172759045</v>
       </c>
       <c r="F28">
-        <v>2.827108593059085</v>
+        <v>5.434142864502792</v>
       </c>
       <c r="G28">
-        <v>96.94906153377202</v>
+        <v>186.3511901337772</v>
       </c>
       <c r="H28">
-        <v>0.654259364242622</v>
+        <v>1.257588358813662</v>
       </c>
       <c r="I28">
-        <v>168.6798684195651</v>
+        <v>324.2289686388046</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>66.86879966790498</v>
+        <v>128.5322436730389</v>
       </c>
       <c r="C29">
-        <v>0.02940906291474401</v>
+        <v>0.05652879757863969</v>
       </c>
       <c r="D29">
-        <v>12.632918369057</v>
+        <v>24.28243590698981</v>
       </c>
       <c r="E29">
-        <v>2.701998342690103</v>
+        <v>5.193661485051032</v>
       </c>
       <c r="F29">
-        <v>3.165395091373847</v>
+        <v>6.084382181622785</v>
       </c>
       <c r="G29">
-        <v>122.8021446094445</v>
+        <v>236.0448408361179</v>
       </c>
       <c r="H29">
-        <v>0.4906945231819662</v>
+        <v>0.9431912691102468</v>
       </c>
       <c r="I29">
-        <v>208.6913596665671</v>
+        <v>401.1372841495092</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>58.29256981657294</v>
+        <v>112.0473946773647</v>
       </c>
       <c r="C30">
-        <v>0.03958912315446311</v>
+        <v>0.07609645827893805</v>
       </c>
       <c r="D30">
-        <v>11.95005791667553</v>
+        <v>22.96987180390926</v>
       </c>
       <c r="E30">
-        <v>2.494152316329325</v>
+        <v>4.794149063124032</v>
       </c>
       <c r="F30">
-        <v>2.754618629134494</v>
+        <v>5.294805867977082</v>
       </c>
       <c r="G30">
-        <v>108.5829489178246</v>
+        <v>208.7133329498306</v>
       </c>
       <c r="H30">
-        <v>0.654259364242622</v>
+        <v>1.257588358813662</v>
       </c>
       <c r="I30">
-        <v>184.768196083934</v>
+        <v>355.1532391792983</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>72.93019520192917</v>
+        <v>140.1831895797561</v>
       </c>
       <c r="C31">
-        <v>0.03845800535004987</v>
+        <v>0.07392227375668269</v>
       </c>
       <c r="D31">
-        <v>17.07151130953649</v>
+        <v>32.81410257701325</v>
       </c>
       <c r="E31">
-        <v>3.53338244813321</v>
+        <v>6.791711172759045</v>
       </c>
       <c r="F31">
-        <v>2.561312058668916</v>
+        <v>4.923240543908513</v>
       </c>
       <c r="G31">
-        <v>96.94906153377202</v>
+        <v>186.3511901337772</v>
       </c>
       <c r="H31">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I31">
-        <v>193.2474853984505</v>
+        <v>371.4517533706742</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>90.72748421672357</v>
+        <v>174.3923499016064</v>
       </c>
       <c r="C32">
-        <v>0.02940906291474401</v>
+        <v>0.05652879757863969</v>
       </c>
       <c r="D32">
-        <v>22.8758251547789</v>
+        <v>43.97089745319774</v>
       </c>
       <c r="E32">
-        <v>4.98830463265865</v>
+        <v>9.588298126248064</v>
       </c>
       <c r="F32">
-        <v>2.706291986518098</v>
+        <v>5.20191453695994</v>
       </c>
       <c r="G32">
-        <v>77.55924922701759</v>
+        <v>149.0809521070219</v>
       </c>
       <c r="H32">
-        <v>1.144953887424588</v>
+        <v>2.200779627923909</v>
       </c>
       <c r="I32">
-        <v>200.0315181680361</v>
+        <v>384.4917205505366</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>108.3313244378789</v>
+        <v>208.2296715243062</v>
       </c>
       <c r="C33">
-        <v>0.02940906291474401</v>
+        <v>0.05652879757863969</v>
       </c>
       <c r="D33">
-        <v>15.02292995239211</v>
+        <v>28.87641026777167</v>
       </c>
       <c r="E33">
-        <v>7.482456948987976</v>
+        <v>14.3824471893721</v>
       </c>
       <c r="F33">
-        <v>1.788085776806602</v>
+        <v>3.436979247634245</v>
       </c>
       <c r="G33">
-        <v>59.46209107404682</v>
+        <v>114.2953966153834</v>
       </c>
       <c r="H33">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I33">
-        <v>192.4434269351485</v>
+        <v>369.906227821453</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>112.3292661730864</v>
+        <v>215.9143379734174</v>
       </c>
       <c r="C34">
-        <v>0.01583564926178524</v>
+        <v>0.03043858331157522</v>
       </c>
       <c r="D34">
-        <v>10.24290678572189</v>
+        <v>19.68846154620794</v>
       </c>
       <c r="E34">
-        <v>9.353071186234967</v>
+        <v>17.97805898671512</v>
       </c>
       <c r="F34">
-        <v>1.087349458868879</v>
+        <v>2.09005494788569</v>
       </c>
       <c r="G34">
-        <v>68.51067015053219</v>
+        <v>131.6881743612027</v>
       </c>
       <c r="H34">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I34">
-        <v>201.6208818242364</v>
+        <v>387.5467249435921</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>75.38054658802403</v>
+        <v>144.8931464356631</v>
       </c>
       <c r="C35">
-        <v>0.0180978848706117</v>
+        <v>0.03478695235608596</v>
       </c>
       <c r="D35">
-        <v>5.121453392860945</v>
+        <v>9.844230773103972</v>
       </c>
       <c r="E35">
-        <v>7.690302975348751</v>
+        <v>14.7819596112991</v>
       </c>
       <c r="F35">
-        <v>1.135676101485274</v>
+        <v>2.182946278902831</v>
       </c>
       <c r="G35">
-        <v>77.55924922701759</v>
+        <v>149.0809521070219</v>
       </c>
       <c r="H35">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I35">
-        <v>166.9871085901375</v>
+        <v>320.9752207031987</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>63.96706776331891</v>
+        <v>122.9546631857807</v>
       </c>
       <c r="C36">
-        <v>0.02036012047943817</v>
+        <v>0.03913532140059672</v>
       </c>
       <c r="D36">
-        <v>7.852895202386782</v>
+        <v>15.09448718542609</v>
       </c>
       <c r="E36">
-        <v>6.443226817184089</v>
+        <v>12.38488507973708</v>
       </c>
       <c r="F36">
-        <v>0.9182062097114979</v>
+        <v>1.764935289325694</v>
       </c>
       <c r="G36">
-        <v>99.5343698413393</v>
+        <v>191.3205552040113</v>
       </c>
       <c r="H36">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I36">
-        <v>178.981473216011</v>
+        <v>344.0302569002366</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>54.55255980621757</v>
+        <v>104.8585131604542</v>
       </c>
       <c r="C37">
-        <v>0.0214912382838514</v>
+        <v>0.04130950592285209</v>
       </c>
       <c r="D37">
-        <v>7.170034750005324</v>
+        <v>13.78192308234556</v>
       </c>
       <c r="E37">
-        <v>2.909844369050878</v>
+        <v>5.593173906978037</v>
       </c>
       <c r="F37">
-        <v>0.5799197113967357</v>
+        <v>1.114695972205701</v>
       </c>
       <c r="G37">
-        <v>56.87678276647957</v>
+        <v>109.3260315451493</v>
       </c>
       <c r="I37">
-        <v>122.1106326414339</v>
+        <v>234.7156471730556</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>22.69799178698415</v>
+        <v>43.62907403366412</v>
       </c>
       <c r="C38">
-        <v>0.0180978848706117</v>
+        <v>0.03478695235608596</v>
       </c>
       <c r="D38">
-        <v>1.024290678572189</v>
+        <v>1.968846154620795</v>
       </c>
       <c r="E38">
-        <v>2.494152316329325</v>
+        <v>4.794149063124032</v>
       </c>
       <c r="F38">
-        <v>0.4349397835475516</v>
+        <v>0.8360219791542759</v>
       </c>
       <c r="G38">
-        <v>37.48697045972516</v>
+        <v>72.05579351839387</v>
       </c>
       <c r="I38">
-        <v>64.15644291002899</v>
+        <v>123.3186717013132</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>14.57314245414323</v>
+        <v>28.01184866934119</v>
       </c>
       <c r="C39">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D39">
-        <v>1.024290678572189</v>
+        <v>1.968846154620795</v>
       </c>
       <c r="E39">
-        <v>1.247076158164663</v>
+        <v>2.397074531562016</v>
       </c>
       <c r="F39">
-        <v>0.2174698917737758</v>
+        <v>0.4180109895771379</v>
       </c>
       <c r="G39">
-        <v>36.19431630594153</v>
+        <v>69.57111098327684</v>
       </c>
       <c r="I39">
-        <v>53.2664755488351</v>
+        <v>102.3864589890783</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>14.70210831656927</v>
+        <v>28.25974113544155</v>
       </c>
       <c r="C40">
-        <v>0.02036012047943817</v>
+        <v>0.03913532140059672</v>
       </c>
       <c r="D40">
-        <v>0.6828604523814595</v>
+        <v>1.312564103080529</v>
       </c>
       <c r="E40">
-        <v>1.454922184525439</v>
+        <v>2.796586953489018</v>
       </c>
       <c r="F40">
-        <v>0.3624498196229597</v>
+        <v>0.6966849826285633</v>
       </c>
       <c r="G40">
-        <v>52.99882030512866</v>
+        <v>101.8719839397982</v>
       </c>
       <c r="I40">
-        <v>70.22152119870722</v>
+        <v>134.9766964358385</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>6.964156571006501</v>
+        <v>13.38619316941968</v>
       </c>
       <c r="C41">
-        <v>0.01922900267502494</v>
+        <v>0.03696113687834134</v>
       </c>
       <c r="D41">
-        <v>0.3414302261907298</v>
+        <v>0.6562820515402646</v>
       </c>
       <c r="E41">
-        <v>1.039230131803886</v>
+        <v>1.997562109635014</v>
       </c>
       <c r="F41">
-        <v>0.3866131409311571</v>
+        <v>0.743130648137134</v>
       </c>
       <c r="G41">
-        <v>54.2914744589123</v>
+        <v>104.3566664749153</v>
       </c>
       <c r="I41">
-        <v>63.0421335315196</v>
+        <v>121.1767955905257</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>6.835190708580455</v>
+        <v>13.13830070331931</v>
       </c>
       <c r="C42">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="F42">
-        <v>0.3866131409311571</v>
+        <v>0.743130648137134</v>
       </c>
       <c r="G42">
-        <v>47.82820368999419</v>
+        <v>91.93325379933009</v>
       </c>
       <c r="I42">
-        <v>55.06244983535435</v>
+        <v>105.8386011805313</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>5.674497946746038</v>
+        <v>10.90726850841603</v>
       </c>
       <c r="C43">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D43">
-        <v>0.3414302261907298</v>
+        <v>0.6562820515402646</v>
       </c>
       <c r="E43">
-        <v>0.6235380790823313</v>
+        <v>1.198537265781008</v>
       </c>
       <c r="F43">
-        <v>0.3624498196229597</v>
+        <v>0.6966849826285633</v>
       </c>
       <c r="G43">
-        <v>64.63270768918132</v>
+        <v>124.2341267558515</v>
       </c>
       <c r="I43">
-        <v>71.64480382106309</v>
+        <v>137.7124672249177</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>9.221059163462311</v>
+        <v>17.72431132617605</v>
       </c>
       <c r="C44">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D44">
-        <v>1.365720904762919</v>
+        <v>2.625128206161059</v>
       </c>
       <c r="E44">
-        <v>0.8313841054431084</v>
+        <v>1.598049687708011</v>
       </c>
       <c r="F44">
-        <v>0.6040830327049327</v>
+        <v>1.161141637714272</v>
       </c>
       <c r="G44">
-        <v>89.1931366110702</v>
+        <v>171.443094923075</v>
       </c>
       <c r="I44">
-        <v>101.22217052427</v>
+        <v>194.5647708879679</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>26.63145059097856</v>
+        <v>51.18979424972525</v>
       </c>
       <c r="C45">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D45">
-        <v>4.438592940479485</v>
+        <v>8.531666670023442</v>
       </c>
       <c r="E45">
-        <v>3.741228474493988</v>
+        <v>7.191223594686049</v>
       </c>
       <c r="F45">
-        <v>1.087349458868879</v>
+        <v>2.09005494788569</v>
       </c>
       <c r="G45">
-        <v>187.4348522986259</v>
+        <v>360.2789675919695</v>
       </c>
       <c r="H45">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I45">
-        <v>223.4220428908036</v>
+        <v>429.4519507062752</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>60.35602361538966</v>
+        <v>116.0136741349705</v>
       </c>
       <c r="C46">
-        <v>0.003393353413239694</v>
+        <v>0.006522553566766121</v>
       </c>
       <c r="D46">
-        <v>10.58433701191262</v>
+        <v>20.3447435977482</v>
       </c>
       <c r="E46">
-        <v>9.9766092653173</v>
+        <v>19.17659625249613</v>
       </c>
       <c r="F46">
-        <v>2.295515524278744</v>
+        <v>4.412338223314235</v>
       </c>
       <c r="G46">
-        <v>206.8246646053801</v>
+        <v>397.5492056187248</v>
       </c>
       <c r="H46">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I46">
-        <v>290.2858906372827</v>
+        <v>557.9746760153757</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>87.50333765607238</v>
+        <v>168.1950382490972</v>
       </c>
       <c r="C47">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D47">
-        <v>10.24290678572189</v>
+        <v>19.68846154620794</v>
       </c>
       <c r="E47">
-        <v>8.313841054431085</v>
+        <v>15.98049687708011</v>
       </c>
       <c r="F47">
-        <v>2.126372275121362</v>
+        <v>4.087218564754238</v>
       </c>
       <c r="G47">
-        <v>130.5580695321462</v>
+        <v>250.95293604682</v>
       </c>
       <c r="H47">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I47">
-        <v>239.1624883485799</v>
+        <v>459.7075374843961</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>98.98129941199055</v>
+        <v>190.2574677320297</v>
       </c>
       <c r="C48">
-        <v>0.01583564926178524</v>
+        <v>0.03043858331157522</v>
       </c>
       <c r="D48">
-        <v>11.26719746429408</v>
+        <v>21.65730770082875</v>
       </c>
       <c r="E48">
-        <v>6.651072843544867</v>
+        <v>12.78439750166409</v>
       </c>
       <c r="F48">
-        <v>2.440495452127928</v>
+        <v>4.691012216365661</v>
       </c>
       <c r="G48">
-        <v>117.63152799431</v>
+        <v>226.1061106956496</v>
       </c>
       <c r="H48">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I48">
-        <v>237.1509936565899</v>
+        <v>455.8411315195527</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>71.06019019675149</v>
+        <v>136.5887488213008</v>
       </c>
       <c r="C49">
-        <v>0.01922900267502494</v>
+        <v>0.03696113687834134</v>
       </c>
       <c r="D49">
-        <v>12.97434859524773</v>
+        <v>24.93871795853007</v>
       </c>
       <c r="E49">
-        <v>4.572612579937095</v>
+        <v>8.78927328239406</v>
       </c>
       <c r="F49">
-        <v>3.068741806141058</v>
+        <v>5.8985995195885</v>
       </c>
       <c r="G49">
-        <v>158.996460915386</v>
+        <v>305.6159518193947</v>
       </c>
       <c r="H49">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I49">
-        <v>250.8551479371991</v>
+        <v>482.1826496277899</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_VOC.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>42.53788383241862</v>
+        <v>24.79727801703782</v>
       </c>
       <c r="C2">
-        <v>0.02359091804054661</v>
+        <v>0.01375222509030315</v>
       </c>
       <c r="D2">
-        <v>10.28584112554229</v>
+        <v>5.996087229773482</v>
       </c>
       <c r="E2">
-        <v>1.28441376769055</v>
+        <v>0.7487435296924759</v>
       </c>
       <c r="F2">
-        <v>2.389130308029665</v>
+        <v>1.392733326851401</v>
       </c>
       <c r="G2">
-        <v>86.87100340068044</v>
+        <v>50.64108105217959</v>
       </c>
       <c r="H2">
-        <v>0.442212728975365</v>
+        <v>0.2577860249530809</v>
       </c>
       <c r="I2">
-        <v>143.8340760813775</v>
+        <v>83.84746140557814</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>43.68351770612544</v>
+        <v>25.46512039922971</v>
       </c>
       <c r="C3">
-        <v>0.02795960656657377</v>
+        <v>0.01629893344035928</v>
       </c>
       <c r="D3">
-        <v>7.91218548118637</v>
+        <v>4.612374792133451</v>
       </c>
       <c r="E3">
-        <v>1.766068930574507</v>
+        <v>1.029522353327154</v>
       </c>
       <c r="F3">
-        <v>2.071823938994474</v>
+        <v>1.20776093187895</v>
       </c>
       <c r="G3">
-        <v>73.89027875460177</v>
+        <v>43.0740229639229</v>
       </c>
       <c r="H3">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I3">
-        <v>129.5413541590386</v>
+        <v>75.51558009891242</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>44.13180922192375</v>
+        <v>25.72645002704393</v>
       </c>
       <c r="C4">
-        <v>0.03320203279780636</v>
+        <v>0.01935498346042665</v>
       </c>
       <c r="D4">
-        <v>8.439664513265459</v>
+        <v>4.919866444942349</v>
       </c>
       <c r="E4">
-        <v>1.766068930574507</v>
+        <v>1.029522353327154</v>
       </c>
       <c r="F4">
-        <v>1.978498536337066</v>
+        <v>1.153357286298818</v>
       </c>
       <c r="G4">
-        <v>81.87841699834249</v>
+        <v>47.7306740951578</v>
       </c>
       <c r="H4">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I4">
-        <v>138.354006727234</v>
+        <v>80.65287834021709</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>51.7029548220732</v>
+        <v>30.14001707457291</v>
       </c>
       <c r="C5">
-        <v>0.02970708197698463</v>
+        <v>0.01731761678038174</v>
       </c>
       <c r="D5">
-        <v>11.86827822177956</v>
+        <v>6.918562188200173</v>
       </c>
       <c r="E5">
-        <v>2.408275814419783</v>
+        <v>1.403894118173393</v>
       </c>
       <c r="F5">
-        <v>2.575781113344482</v>
+        <v>1.501540618011667</v>
       </c>
       <c r="G5">
-        <v>85.87248612021288</v>
+        <v>50.05899966077528</v>
       </c>
       <c r="H5">
-        <v>0.5053859759718456</v>
+        <v>0.2946125999463782</v>
       </c>
       <c r="I5">
-        <v>154.9628691497787</v>
+        <v>90.33494387646017</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>50.65694128521045</v>
+        <v>29.5302479430064</v>
       </c>
       <c r="C6">
-        <v>0.02533839345095748</v>
+        <v>0.0147709084303256</v>
       </c>
       <c r="D6">
-        <v>10.54958064158183</v>
+        <v>6.149833056177933</v>
       </c>
       <c r="E6">
-        <v>2.087172372497146</v>
+        <v>1.216708235750274</v>
       </c>
       <c r="F6">
-        <v>2.501120791218557</v>
+        <v>1.458017701547561</v>
       </c>
       <c r="G6">
-        <v>86.87100340068044</v>
+        <v>50.64108105217959</v>
       </c>
       <c r="H6">
-        <v>0.3790394819788844</v>
+        <v>0.2209594499597836</v>
       </c>
       <c r="I6">
-        <v>153.0701963666183</v>
+        <v>89.23161834705186</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>57.68017503271754</v>
+        <v>33.62441211209578</v>
       </c>
       <c r="C7">
-        <v>0.02446465574575205</v>
+        <v>0.01426156676031437</v>
       </c>
       <c r="D7">
-        <v>11.34079918970047</v>
+        <v>6.611070535391277</v>
       </c>
       <c r="E7">
-        <v>2.247724093458464</v>
+        <v>1.310301176961833</v>
       </c>
       <c r="F7">
-        <v>2.053158858462993</v>
+        <v>1.196880202762923</v>
       </c>
       <c r="G7">
-        <v>76.88583059600454</v>
+        <v>44.82026713813597</v>
       </c>
       <c r="H7">
-        <v>0.631732469964807</v>
+        <v>0.3682657499329728</v>
       </c>
       <c r="I7">
-        <v>150.8638848960545</v>
+        <v>87.94545848204108</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>64.05587659073808</v>
+        <v>37.34110015212019</v>
       </c>
       <c r="C8">
-        <v>0.01922222951451947</v>
+        <v>0.011205516740247</v>
       </c>
       <c r="D8">
-        <v>15.5606314463332</v>
+        <v>9.071003757862451</v>
       </c>
       <c r="E8">
-        <v>3.692689582110333</v>
+        <v>2.152637647865868</v>
       </c>
       <c r="F8">
-        <v>2.202479502714846</v>
+        <v>1.283926035691136</v>
       </c>
       <c r="G8">
-        <v>53.91993314524994</v>
+        <v>31.43239513583564</v>
       </c>
       <c r="H8">
-        <v>0.6949057169612878</v>
+        <v>0.4050923249262701</v>
       </c>
       <c r="I8">
-        <v>140.1457382136222</v>
+        <v>81.6973605710418</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>74.26696111725543</v>
+        <v>43.29360834122177</v>
       </c>
       <c r="C9">
-        <v>0.01223232787287602</v>
+        <v>0.007130783380157186</v>
       </c>
       <c r="D9">
-        <v>12.92323628593774</v>
+        <v>7.533545493817965</v>
       </c>
       <c r="E9">
-        <v>4.495448186916928</v>
+        <v>2.620602353923666</v>
       </c>
       <c r="F9">
-        <v>1.082574670825942</v>
+        <v>0.6310822887295413</v>
       </c>
       <c r="G9">
-        <v>46.93031218197678</v>
+        <v>27.3578253960051</v>
       </c>
       <c r="H9">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I9">
-        <v>139.9634577587716</v>
+        <v>81.5911009570514</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>83.18298126479989</v>
+        <v>48.49116427219339</v>
       </c>
       <c r="C10">
-        <v>0.0113585901676706</v>
+        <v>0.006621441710145959</v>
       </c>
       <c r="D10">
-        <v>8.175924997225922</v>
+        <v>4.766120618537895</v>
       </c>
       <c r="E10">
-        <v>6.582620559414075</v>
+        <v>3.837310589673939</v>
       </c>
       <c r="F10">
-        <v>0.7279381407277886</v>
+        <v>0.4243484355250365</v>
       </c>
       <c r="G10">
-        <v>52.92141586478233</v>
+        <v>30.85031374443125</v>
       </c>
       <c r="H10">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I10">
-        <v>151.7285859111107</v>
+        <v>88.44953225205826</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>57.82960553798364</v>
+        <v>33.71152198803385</v>
       </c>
       <c r="C11">
-        <v>0.01485354098849232</v>
+        <v>0.00865880839019087</v>
       </c>
       <c r="D11">
-        <v>4.21983225663273</v>
+        <v>2.459933222471175</v>
       </c>
       <c r="E11">
-        <v>6.422068838452756</v>
+        <v>3.74371764846238</v>
       </c>
       <c r="F11">
-        <v>0.7466032212592699</v>
+        <v>0.4352291646410629</v>
       </c>
       <c r="G11">
-        <v>53.91993314524994</v>
+        <v>31.43239513583564</v>
       </c>
       <c r="H11">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I11">
-        <v>123.2792430345598</v>
+        <v>71.86510911782089</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>45.87516511669501</v>
+        <v>26.74273191298811</v>
       </c>
       <c r="C12">
-        <v>0.01834849180931403</v>
+        <v>0.01069617507023578</v>
       </c>
       <c r="D12">
-        <v>6.329748384949096</v>
+        <v>3.689899833706761</v>
       </c>
       <c r="E12">
-        <v>4.816551628839566</v>
+        <v>2.807788236346786</v>
       </c>
       <c r="F12">
-        <v>0.5039571743500075</v>
+        <v>0.2937796861327175</v>
       </c>
       <c r="G12">
-        <v>74.88879603506939</v>
+        <v>43.65610435532728</v>
       </c>
       <c r="I12">
-        <v>132.4325668317124</v>
+        <v>77.20100019957189</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>40.59528726395921</v>
+        <v>23.66484962984289</v>
       </c>
       <c r="C13">
-        <v>0.01922222951451947</v>
+        <v>0.011205516740247</v>
       </c>
       <c r="D13">
-        <v>4.747311288711821</v>
+        <v>2.767424875280069</v>
       </c>
       <c r="E13">
-        <v>1.605517209613189</v>
+        <v>0.9359294121155949</v>
       </c>
       <c r="F13">
-        <v>0.5226222548814891</v>
+        <v>0.3046604152487441</v>
       </c>
       <c r="G13">
-        <v>43.93476034057404</v>
+        <v>25.611581221792</v>
       </c>
       <c r="I13">
-        <v>91.42472058725427</v>
+        <v>53.29565107101955</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>25.75185707419252</v>
+        <v>15.01193528666107</v>
       </c>
       <c r="C14">
-        <v>0.01572727869369775</v>
+        <v>0.009168150060202095</v>
       </c>
       <c r="D14">
-        <v>3.428613708514094</v>
+        <v>1.998695743257829</v>
       </c>
       <c r="E14">
-        <v>2.408275814419783</v>
+        <v>1.403894118173393</v>
       </c>
       <c r="F14">
-        <v>0.4292968522240804</v>
+        <v>0.2502567696686112</v>
       </c>
       <c r="G14">
-        <v>50.92438130384716</v>
+        <v>29.68615096162253</v>
       </c>
       <c r="I14">
-        <v>82.95815203189133</v>
+        <v>48.36010102944364</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>16.33773524242777</v>
+        <v>9.524013102562536</v>
       </c>
       <c r="C15">
-        <v>0.01572727869369775</v>
+        <v>0.009168150060202095</v>
       </c>
       <c r="D15">
-        <v>0.791218548118637</v>
+        <v>0.4612374792133451</v>
       </c>
       <c r="E15">
-        <v>1.444965488651869</v>
+        <v>0.8423364709040353</v>
       </c>
       <c r="F15">
-        <v>0.2053158858462993</v>
+        <v>0.1196880202762923</v>
       </c>
       <c r="G15">
-        <v>36.94513937730088</v>
+        <v>21.53701148196145</v>
       </c>
       <c r="I15">
-        <v>55.74010182103915</v>
+        <v>32.49345470497786</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>8.019437115947772</v>
+        <v>4.674896675343194</v>
       </c>
       <c r="C16">
-        <v>0.01485354098849232</v>
+        <v>0.00865880839019087</v>
       </c>
       <c r="D16">
-        <v>0.2637395160395456</v>
+        <v>0.1537458264044484</v>
       </c>
       <c r="E16">
-        <v>1.123862046729232</v>
+        <v>0.6551505884809166</v>
       </c>
       <c r="F16">
-        <v>0.373301610629635</v>
+        <v>0.2176145823205314</v>
       </c>
       <c r="G16">
-        <v>34.94810481636571</v>
+        <v>20.37284869915271</v>
       </c>
       <c r="H16">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I16">
-        <v>44.80647189369687</v>
+        <v>26.11974175508529</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>5.678359200112086</v>
+        <v>3.310175285646735</v>
       </c>
       <c r="C17">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D17">
-        <v>0.5274790320790912</v>
+        <v>0.3074916528088968</v>
       </c>
       <c r="E17">
-        <v>0.6422068838452752</v>
+        <v>0.374371764846238</v>
       </c>
       <c r="F17">
-        <v>0.3919666911611169</v>
+        <v>0.2284953114365581</v>
       </c>
       <c r="G17">
-        <v>33.94958753589812</v>
+        <v>19.79076730774834</v>
       </c>
       <c r="I17">
-        <v>41.19746298244254</v>
+        <v>24.01588539751687</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>3.935003305340831</v>
+        <v>2.293893399702561</v>
       </c>
       <c r="C18">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D18">
-        <v>0.791218548118637</v>
+        <v>0.4612374792133451</v>
       </c>
       <c r="F18">
-        <v>0.3359714495666716</v>
+        <v>0.1958531240884783</v>
       </c>
       <c r="G18">
-        <v>29.95551841402775</v>
+        <v>17.46244174213091</v>
       </c>
       <c r="I18">
-        <v>35.02295414328512</v>
+        <v>20.41648179515536</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>3.586332126386581</v>
+        <v>2.090637022513728</v>
       </c>
       <c r="C19">
-        <v>0.008737377052054305</v>
+        <v>0.005093416700112275</v>
       </c>
       <c r="D19">
-        <v>0.791218548118637</v>
+        <v>0.4612374792133451</v>
       </c>
       <c r="E19">
-        <v>0.3211034419226376</v>
+        <v>0.187185882423119</v>
       </c>
       <c r="F19">
-        <v>0.3173063690351898</v>
+        <v>0.1849723949724517</v>
       </c>
       <c r="G19">
-        <v>45.93179490150921</v>
+        <v>26.77574400460072</v>
       </c>
       <c r="I19">
-        <v>50.95649276402431</v>
+        <v>29.70487020042348</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>6.176460884332445</v>
+        <v>3.600541538773641</v>
       </c>
       <c r="C20">
-        <v>0.008737377052054305</v>
+        <v>0.005093416700112275</v>
       </c>
       <c r="D20">
-        <v>0.791218548118637</v>
+        <v>0.4612374792133451</v>
       </c>
       <c r="E20">
-        <v>0.6422068838452752</v>
+        <v>0.374371764846238</v>
       </c>
       <c r="F20">
-        <v>0.4852920938185256</v>
+        <v>0.2828989570166908</v>
       </c>
       <c r="G20">
-        <v>83.87545155927768</v>
+        <v>48.89483687796653</v>
       </c>
       <c r="H20">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I20">
-        <v>92.0425405934411</v>
+        <v>53.65580660950986</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>20.27273854776859</v>
+        <v>11.8179065022651</v>
       </c>
       <c r="C21">
-        <v>0.008737377052054305</v>
+        <v>0.005093416700112275</v>
       </c>
       <c r="D21">
-        <v>2.637395160395457</v>
+        <v>1.537458264044483</v>
       </c>
       <c r="E21">
-        <v>3.211034419226378</v>
+        <v>1.87185882423119</v>
       </c>
       <c r="F21">
-        <v>0.5786174964759345</v>
+        <v>0.3373026025968237</v>
       </c>
       <c r="G21">
-        <v>121.8191082170462</v>
+        <v>71.01392975133237</v>
       </c>
       <c r="H21">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I21">
-        <v>148.5908044649611</v>
+        <v>86.62037593616337</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>45.27744309563061</v>
+        <v>26.39429240923581</v>
       </c>
       <c r="C22">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D22">
-        <v>7.120966933067733</v>
+        <v>4.151137312920103</v>
       </c>
       <c r="E22">
-        <v>6.903724001336712</v>
+        <v>4.024496472097059</v>
       </c>
       <c r="F22">
-        <v>1.605196925707431</v>
+        <v>0.9357427039782854</v>
       </c>
       <c r="G22">
-        <v>131.8042810217221</v>
+        <v>76.83474366537597</v>
       </c>
       <c r="H22">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I22">
-        <v>192.9712948670921</v>
+        <v>112.4917935969405</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>70.68062899086884</v>
+        <v>41.20297131870804</v>
       </c>
       <c r="C23">
-        <v>0.01223232787287602</v>
+        <v>0.007130783380157186</v>
       </c>
       <c r="D23">
-        <v>10.28584112554229</v>
+        <v>5.996087229773482</v>
       </c>
       <c r="E23">
-        <v>6.261517117491437</v>
+        <v>3.650124707250821</v>
       </c>
       <c r="F23">
-        <v>1.773182650490767</v>
+        <v>1.033669266022524</v>
       </c>
       <c r="G23">
-        <v>111.8339354123702</v>
+        <v>65.19311583728874</v>
       </c>
       <c r="H23">
-        <v>0.3790394819788844</v>
+        <v>0.2209594499597836</v>
       </c>
       <c r="I23">
-        <v>201.2263771066153</v>
+        <v>117.3040585923835</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>83.68108294902018</v>
+        <v>48.78153052532031</v>
       </c>
       <c r="C24">
-        <v>0.02621213115616291</v>
+        <v>0.01528025010033683</v>
       </c>
       <c r="D24">
-        <v>11.60453870574</v>
+        <v>6.764816361795726</v>
       </c>
       <c r="E24">
-        <v>6.743172280375393</v>
+        <v>3.930903530885499</v>
       </c>
       <c r="F24">
-        <v>2.351800146966701</v>
+        <v>1.370971868619348</v>
       </c>
       <c r="G24">
-        <v>108.8383835709675</v>
+        <v>63.44687166307565</v>
       </c>
       <c r="H24">
-        <v>0.442212728975365</v>
+        <v>0.2577860249530809</v>
       </c>
       <c r="I24">
-        <v>213.6874025132012</v>
+        <v>124.5681602247499</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>54.19346324317502</v>
+        <v>31.59184834020744</v>
       </c>
       <c r="C25">
-        <v>0.01747475410410861</v>
+        <v>0.01018683340022455</v>
       </c>
       <c r="D25">
-        <v>12.1320177378191</v>
+        <v>7.072308014604623</v>
       </c>
       <c r="E25">
-        <v>3.532137861149015</v>
+        <v>2.059044706654308</v>
       </c>
       <c r="F25">
-        <v>2.183814422183366</v>
+        <v>1.273045306575109</v>
       </c>
       <c r="G25">
-        <v>115.8280045342406</v>
+        <v>67.52144140290615</v>
       </c>
       <c r="H25">
-        <v>0.5053859759718456</v>
+        <v>0.2946125999463782</v>
       </c>
       <c r="I25">
-        <v>188.3922985286431</v>
+        <v>109.8224872042942</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>44.58010073772208</v>
+        <v>25.98777965485813</v>
       </c>
       <c r="C26">
-        <v>0.02359091804054661</v>
+        <v>0.01375222509030315</v>
       </c>
       <c r="D26">
-        <v>10.28584112554229</v>
+        <v>5.996087229773482</v>
       </c>
       <c r="E26">
-        <v>1.444965488651869</v>
+        <v>0.8423364709040353</v>
       </c>
       <c r="F26">
-        <v>2.687771596533373</v>
+        <v>1.566824992707826</v>
       </c>
       <c r="G26">
-        <v>94.85914164442123</v>
+        <v>55.29773218341451</v>
       </c>
       <c r="H26">
-        <v>0.442212728975365</v>
+        <v>0.2577860249530809</v>
       </c>
       <c r="I26">
-        <v>154.3236242398868</v>
+        <v>89.96229878170138</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>44.43067023245596</v>
+        <v>25.90066977892007</v>
       </c>
       <c r="C27">
-        <v>0.02708586886136834</v>
+        <v>0.01578959177034805</v>
       </c>
       <c r="D27">
-        <v>7.64844596514683</v>
+        <v>4.458628965729003</v>
       </c>
       <c r="E27">
-        <v>1.766068930574507</v>
+        <v>1.029522353327154</v>
       </c>
       <c r="F27">
-        <v>2.930417643442636</v>
+        <v>1.708274471216172</v>
       </c>
       <c r="G27">
-        <v>95.85765892488877</v>
+        <v>55.87981357481885</v>
       </c>
       <c r="H27">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I27">
-        <v>152.913040553356</v>
+        <v>89.1400050357548</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>41.79073130608808</v>
+        <v>24.36172863734748</v>
       </c>
       <c r="C28">
-        <v>0.02359091804054661</v>
+        <v>0.01375222509030315</v>
       </c>
       <c r="D28">
-        <v>8.175924997225922</v>
+        <v>4.766120618537895</v>
       </c>
       <c r="E28">
-        <v>2.729379256342421</v>
+        <v>1.591080000596511</v>
       </c>
       <c r="F28">
-        <v>2.183814422183366</v>
+        <v>1.273045306575109</v>
       </c>
       <c r="G28">
-        <v>74.88879603506939</v>
+        <v>43.65610435532728</v>
       </c>
       <c r="H28">
-        <v>0.5053859759718456</v>
+        <v>0.2946125999463782</v>
       </c>
       <c r="I28">
-        <v>130.2976229109216</v>
+        <v>75.95644374342096</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>51.65314465365118</v>
+        <v>30.11098044926022</v>
       </c>
       <c r="C29">
-        <v>0.02271718033534119</v>
+        <v>0.01324288342029192</v>
       </c>
       <c r="D29">
-        <v>9.758362093463193</v>
+        <v>5.688595576964588</v>
       </c>
       <c r="E29">
-        <v>2.087172372497146</v>
+        <v>1.216708235750274</v>
       </c>
       <c r="F29">
-        <v>2.44512554962411</v>
+        <v>1.425375514199481</v>
       </c>
       <c r="G29">
-        <v>94.85914164442123</v>
+        <v>55.29773218341451</v>
       </c>
       <c r="H29">
-        <v>0.3790394819788844</v>
+        <v>0.2209594499597836</v>
       </c>
       <c r="I29">
-        <v>161.2047029759711</v>
+        <v>93.97359429296914</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>45.02839225352041</v>
+        <v>26.24910928267236</v>
       </c>
       <c r="C30">
-        <v>0.03058081968219006</v>
+        <v>0.01782695845039296</v>
       </c>
       <c r="D30">
-        <v>9.230883061384104</v>
+        <v>5.381103924155695</v>
       </c>
       <c r="E30">
-        <v>1.926620651535826</v>
+        <v>1.123115294538714</v>
       </c>
       <c r="F30">
-        <v>2.12781918058892</v>
+        <v>1.240403119227029</v>
       </c>
       <c r="G30">
-        <v>83.87545155927768</v>
+        <v>48.89483687796653</v>
       </c>
       <c r="H30">
-        <v>0.5053859759718456</v>
+        <v>0.2946125999463782</v>
       </c>
       <c r="I30">
-        <v>142.725133501961</v>
+        <v>83.20100805695711</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>56.33530048532254</v>
+        <v>32.84042322865314</v>
       </c>
       <c r="C31">
-        <v>0.02970708197698463</v>
+        <v>0.01731761678038174</v>
       </c>
       <c r="D31">
-        <v>13.18697580197728</v>
+        <v>7.687291320222417</v>
       </c>
       <c r="E31">
-        <v>2.729379256342421</v>
+        <v>1.591080000596511</v>
       </c>
       <c r="F31">
-        <v>1.978498536337066</v>
+        <v>1.153357286298818</v>
       </c>
       <c r="G31">
-        <v>74.88879603506939</v>
+        <v>43.65610435532728</v>
       </c>
       <c r="H31">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I31">
-        <v>149.2750036910187</v>
+        <v>87.01922695786514</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>70.08290696980444</v>
+        <v>40.85453181495575</v>
       </c>
       <c r="C32">
-        <v>0.02271718033534119</v>
+        <v>0.01324288342029192</v>
       </c>
       <c r="D32">
-        <v>17.67054757464955</v>
+        <v>10.30097036909804</v>
       </c>
       <c r="E32">
-        <v>3.853241303071652</v>
+        <v>2.246230589077429</v>
       </c>
       <c r="F32">
-        <v>2.090489019525956</v>
+        <v>1.218641660994976</v>
       </c>
       <c r="G32">
-        <v>59.91103682805549</v>
+        <v>34.92488348426182</v>
       </c>
       <c r="H32">
-        <v>0.8844254579507299</v>
+        <v>0.5155720499061619</v>
       </c>
       <c r="I32">
-        <v>154.5153643333932</v>
+        <v>90.07407285171446</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>83.68108294902018</v>
+        <v>48.78153052532031</v>
       </c>
       <c r="C33">
-        <v>0.02271718033534119</v>
+        <v>0.01324288342029192</v>
       </c>
       <c r="D33">
-        <v>11.60453870574</v>
+        <v>6.764816361795726</v>
       </c>
       <c r="E33">
-        <v>5.779861954607477</v>
+        <v>3.369345883616141</v>
       </c>
       <c r="F33">
-        <v>1.38121595932965</v>
+        <v>0.8051739545859663</v>
       </c>
       <c r="G33">
-        <v>45.93179490150921</v>
+        <v>26.77574400460072</v>
       </c>
       <c r="H33">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I33">
-        <v>148.6539046385278</v>
+        <v>86.65715991331234</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>86.76931339118647</v>
+        <v>50.58180129470714</v>
       </c>
       <c r="C34">
-        <v>0.01223232787287602</v>
+        <v>0.007130783380157186</v>
       </c>
       <c r="D34">
-        <v>7.91218548118637</v>
+        <v>4.612374792133451</v>
       </c>
       <c r="E34">
-        <v>7.22482744325935</v>
+        <v>4.211682354520177</v>
       </c>
       <c r="F34">
-        <v>0.839928623916679</v>
+        <v>0.4896328102211958</v>
       </c>
       <c r="G34">
-        <v>52.92141586478233</v>
+        <v>30.85031374443125</v>
       </c>
       <c r="H34">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I34">
-        <v>155.7430763792005</v>
+        <v>90.78976235438667</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>58.2280868853599</v>
+        <v>33.94381499053538</v>
       </c>
       <c r="C35">
-        <v>0.01397980328328688</v>
+        <v>0.008149466720179641</v>
       </c>
       <c r="D35">
-        <v>3.956092740593185</v>
+        <v>2.306187396066726</v>
       </c>
       <c r="E35">
-        <v>5.940413675568794</v>
+        <v>3.462938824827702</v>
       </c>
       <c r="F35">
-        <v>0.877258784979642</v>
+        <v>0.5113942684532489</v>
       </c>
       <c r="G35">
-        <v>59.91103682805549</v>
+        <v>34.92488348426182</v>
       </c>
       <c r="H35">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I35">
-        <v>128.9900419648368</v>
+        <v>75.19419500585836</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>49.41168707465956</v>
+        <v>28.80433231018913</v>
       </c>
       <c r="C36">
-        <v>0.01572727869369775</v>
+        <v>0.009168150060202095</v>
       </c>
       <c r="D36">
-        <v>6.066008868909549</v>
+        <v>3.536154007302311</v>
       </c>
       <c r="E36">
-        <v>4.977103349800887</v>
+        <v>2.901381177558344</v>
       </c>
       <c r="F36">
-        <v>0.7092730601963068</v>
+        <v>0.4134677064090098</v>
       </c>
       <c r="G36">
-        <v>76.88583059600454</v>
+        <v>44.82026713813597</v>
       </c>
       <c r="H36">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I36">
-        <v>138.255149969254</v>
+        <v>80.59525021463487</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>42.13940248504231</v>
+        <v>24.56498501453629</v>
       </c>
       <c r="C37">
-        <v>0.01660101639890318</v>
+        <v>0.009677491730213324</v>
       </c>
       <c r="D37">
-        <v>5.53852983683046</v>
+        <v>3.228662354493416</v>
       </c>
       <c r="E37">
-        <v>2.247724093458464</v>
+        <v>1.310301176961833</v>
       </c>
       <c r="F37">
-        <v>0.447961932755562</v>
+        <v>0.2611374987846379</v>
       </c>
       <c r="G37">
-        <v>43.93476034057404</v>
+        <v>25.611581221792</v>
       </c>
       <c r="I37">
-        <v>94.32497970505975</v>
+        <v>54.98634475829839</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>17.53317928455661</v>
+        <v>10.22089211006711</v>
       </c>
       <c r="C38">
-        <v>0.01397980328328688</v>
+        <v>0.008149466720179641</v>
       </c>
       <c r="D38">
-        <v>0.791218548118637</v>
+        <v>0.4612374792133451</v>
       </c>
       <c r="E38">
-        <v>1.926620651535826</v>
+        <v>1.123115294538714</v>
       </c>
       <c r="F38">
-        <v>0.3359714495666716</v>
+        <v>0.1958531240884783</v>
       </c>
       <c r="G38">
-        <v>28.95700113356016</v>
+        <v>16.88036035072654</v>
       </c>
       <c r="I38">
-        <v>49.5579708706212</v>
+        <v>28.88960782535437</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>11.2570980633801</v>
+        <v>6.562277320668091</v>
       </c>
       <c r="C39">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D39">
-        <v>0.791218548118637</v>
+        <v>0.4612374792133451</v>
       </c>
       <c r="E39">
-        <v>0.9633103257679131</v>
+        <v>0.5615576472693572</v>
       </c>
       <c r="F39">
-        <v>0.1679857247833358</v>
+        <v>0.09792656204423915</v>
       </c>
       <c r="G39">
-        <v>27.95848385309256</v>
+        <v>16.29827895932219</v>
       </c>
       <c r="I39">
-        <v>41.14596015448939</v>
+        <v>23.98586204354732</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>11.35671840022417</v>
+        <v>6.62035057129347</v>
       </c>
       <c r="C40">
-        <v>0.01572727869369775</v>
+        <v>0.009168150060202095</v>
       </c>
       <c r="D40">
-        <v>0.5274790320790912</v>
+        <v>0.3074916528088968</v>
       </c>
       <c r="E40">
-        <v>1.123862046729232</v>
+        <v>0.6551505884809166</v>
       </c>
       <c r="F40">
-        <v>0.2799762079722264</v>
+        <v>0.1632109367403986</v>
       </c>
       <c r="G40">
-        <v>40.93920849917124</v>
+        <v>23.8653370475789</v>
       </c>
       <c r="I40">
-        <v>54.24297146486966</v>
+        <v>31.62070894696279</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>5.379498189579866</v>
+        <v>3.135955533770591</v>
       </c>
       <c r="C41">
-        <v>0.01485354098849232</v>
+        <v>0.00865880839019087</v>
       </c>
       <c r="D41">
-        <v>0.2637395160395456</v>
+        <v>0.1537458264044484</v>
       </c>
       <c r="E41">
-        <v>0.8027586048065944</v>
+        <v>0.4679647060577974</v>
       </c>
       <c r="F41">
-        <v>0.2986412885037081</v>
+        <v>0.1740916658564251</v>
       </c>
       <c r="G41">
-        <v>41.93772577963884</v>
+        <v>24.44741843898327</v>
       </c>
       <c r="I41">
-        <v>48.69721691955705</v>
+        <v>28.38783497946272</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>5.279877852735799</v>
+        <v>3.07788228314521</v>
       </c>
       <c r="C42">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="F42">
-        <v>0.2986412885037081</v>
+        <v>0.1740916658564251</v>
       </c>
       <c r="G42">
-        <v>36.94513937730088</v>
+        <v>21.53701148196145</v>
       </c>
       <c r="I42">
-        <v>42.53326963329765</v>
+        <v>24.79458818933321</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>4.383294821139153</v>
+        <v>2.555223027516778</v>
       </c>
       <c r="C43">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D43">
-        <v>0.2637395160395456</v>
+        <v>0.1537458264044484</v>
       </c>
       <c r="E43">
-        <v>0.4816551628839565</v>
+        <v>0.2807788236346786</v>
       </c>
       <c r="F43">
-        <v>0.2799762079722264</v>
+        <v>0.1632109367403986</v>
       </c>
       <c r="G43">
-        <v>49.9258640233796</v>
+        <v>29.10406957021817</v>
       </c>
       <c r="I43">
-        <v>55.34239337076133</v>
+        <v>32.26161225954457</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>7.122854084351124</v>
+        <v>4.152237419714765</v>
       </c>
       <c r="C44">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D44">
-        <v>1.054958064158182</v>
+        <v>0.6149833056177937</v>
       </c>
       <c r="E44">
-        <v>0.6422068838452752</v>
+        <v>0.374371764846238</v>
       </c>
       <c r="F44">
-        <v>0.4666270132870438</v>
+        <v>0.2720182279006643</v>
       </c>
       <c r="G44">
-        <v>68.89769235226379</v>
+        <v>40.16361600690109</v>
       </c>
       <c r="I44">
-        <v>78.18958082413664</v>
+        <v>45.58028277500063</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>20.57159955830081</v>
+        <v>11.99212625414124</v>
       </c>
       <c r="C45">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D45">
-        <v>3.428613708514094</v>
+        <v>1.998695743257829</v>
       </c>
       <c r="E45">
-        <v>2.889930977303738</v>
+        <v>1.684672941808071</v>
       </c>
       <c r="F45">
-        <v>0.839928623916679</v>
+        <v>0.4896328102211958</v>
       </c>
       <c r="G45">
-        <v>144.7850056678007</v>
+        <v>84.4018017536327</v>
       </c>
       <c r="H45">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I45">
-        <v>172.5834942090638</v>
+        <v>100.6068121280744</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>46.62231764302555</v>
+        <v>27.17828129267846</v>
       </c>
       <c r="C46">
-        <v>0.002621213115616291</v>
+        <v>0.001528025010033683</v>
       </c>
       <c r="D46">
-        <v>8.175924997225922</v>
+        <v>4.766120618537895</v>
       </c>
       <c r="E46">
-        <v>7.706482606143305</v>
+        <v>4.492461178154858</v>
       </c>
       <c r="F46">
-        <v>1.773182650490767</v>
+        <v>1.033669266022524</v>
       </c>
       <c r="G46">
-        <v>159.7627648748146</v>
+        <v>93.13302262469817</v>
       </c>
       <c r="H46">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I46">
-        <v>224.2328137258052</v>
+        <v>130.7155627300818</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>67.59239854870263</v>
+        <v>39.40270054932122</v>
       </c>
       <c r="C47">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D47">
-        <v>7.91218548118637</v>
+        <v>4.612374792133451</v>
       </c>
       <c r="E47">
-        <v>6.422068838452756</v>
+        <v>3.74371764846238</v>
       </c>
       <c r="F47">
-        <v>1.642527086770394</v>
+        <v>0.9575041622103386</v>
       </c>
       <c r="G47">
-        <v>100.8502453272267</v>
+        <v>58.7902205318407</v>
       </c>
       <c r="H47">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I47">
-        <v>184.7422814189629</v>
+        <v>107.6947252922947</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>76.45860852782499</v>
+        <v>44.57121985498014</v>
       </c>
       <c r="C48">
-        <v>0.01223232787287602</v>
+        <v>0.007130783380157186</v>
       </c>
       <c r="D48">
-        <v>8.703404029305007</v>
+        <v>5.073612271346795</v>
       </c>
       <c r="E48">
-        <v>5.137655070762202</v>
+        <v>2.994974118769904</v>
       </c>
       <c r="F48">
-        <v>1.885173133679657</v>
+        <v>1.098953640718684</v>
       </c>
       <c r="G48">
-        <v>90.86507252255085</v>
+        <v>52.96940661779708</v>
       </c>
       <c r="H48">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I48">
-        <v>183.1884921059886</v>
+        <v>106.7889504369794</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>54.8908056010835</v>
+        <v>31.9983610945851</v>
       </c>
       <c r="C49">
-        <v>0.01485354098849232</v>
+        <v>0.00865880839019087</v>
       </c>
       <c r="D49">
-        <v>10.02210160950274</v>
+        <v>5.842341403369037</v>
       </c>
       <c r="E49">
-        <v>3.532137861149015</v>
+        <v>2.059044706654308</v>
       </c>
       <c r="F49">
-        <v>2.370465227498183</v>
+        <v>1.381852597735375</v>
       </c>
       <c r="G49">
-        <v>122.8176254975137</v>
+        <v>71.59601114273673</v>
       </c>
       <c r="H49">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I49">
-        <v>193.7743358317286</v>
+        <v>112.9599229034573</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_VOC.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>24.79727801703782</v>
+        <v>42.53788383241862</v>
       </c>
       <c r="C2">
-        <v>0.01375222509030315</v>
+        <v>0.02359091804054661</v>
       </c>
       <c r="D2">
-        <v>5.996087229773482</v>
+        <v>10.28584112554229</v>
       </c>
       <c r="E2">
-        <v>0.7487435296924759</v>
+        <v>1.28441376769055</v>
       </c>
       <c r="F2">
-        <v>1.392733326851401</v>
+        <v>2.389130308029665</v>
       </c>
       <c r="G2">
-        <v>50.64108105217959</v>
+        <v>86.87100340068044</v>
       </c>
       <c r="H2">
-        <v>0.2577860249530809</v>
+        <v>0.442212728975365</v>
       </c>
       <c r="I2">
-        <v>83.84746140557814</v>
+        <v>143.8340760813775</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>25.46512039922971</v>
+        <v>43.68351770612544</v>
       </c>
       <c r="C3">
-        <v>0.01629893344035928</v>
+        <v>0.02795960656657377</v>
       </c>
       <c r="D3">
-        <v>4.612374792133451</v>
+        <v>7.91218548118637</v>
       </c>
       <c r="E3">
-        <v>1.029522353327154</v>
+        <v>1.766068930574507</v>
       </c>
       <c r="F3">
-        <v>1.20776093187895</v>
+        <v>2.071823938994474</v>
       </c>
       <c r="G3">
-        <v>43.0740229639229</v>
+        <v>73.89027875460177</v>
       </c>
       <c r="H3">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I3">
-        <v>75.51558009891242</v>
+        <v>129.5413541590386</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>25.72645002704393</v>
+        <v>44.13180922192375</v>
       </c>
       <c r="C4">
-        <v>0.01935498346042665</v>
+        <v>0.03320203279780636</v>
       </c>
       <c r="D4">
-        <v>4.919866444942349</v>
+        <v>8.439664513265459</v>
       </c>
       <c r="E4">
-        <v>1.029522353327154</v>
+        <v>1.766068930574507</v>
       </c>
       <c r="F4">
-        <v>1.153357286298818</v>
+        <v>1.978498536337066</v>
       </c>
       <c r="G4">
-        <v>47.7306740951578</v>
+        <v>81.87841699834249</v>
       </c>
       <c r="H4">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I4">
-        <v>80.65287834021709</v>
+        <v>138.354006727234</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>30.14001707457291</v>
+        <v>51.7029548220732</v>
       </c>
       <c r="C5">
-        <v>0.01731761678038174</v>
+        <v>0.02970708197698463</v>
       </c>
       <c r="D5">
-        <v>6.918562188200173</v>
+        <v>11.86827822177956</v>
       </c>
       <c r="E5">
-        <v>1.403894118173393</v>
+        <v>2.408275814419783</v>
       </c>
       <c r="F5">
-        <v>1.501540618011667</v>
+        <v>2.575781113344482</v>
       </c>
       <c r="G5">
-        <v>50.05899966077528</v>
+        <v>85.87248612021288</v>
       </c>
       <c r="H5">
-        <v>0.2946125999463782</v>
+        <v>0.5053859759718456</v>
       </c>
       <c r="I5">
-        <v>90.33494387646017</v>
+        <v>154.9628691497787</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>29.5302479430064</v>
+        <v>50.65694128521045</v>
       </c>
       <c r="C6">
-        <v>0.0147709084303256</v>
+        <v>0.02533839345095748</v>
       </c>
       <c r="D6">
-        <v>6.149833056177933</v>
+        <v>10.54958064158183</v>
       </c>
       <c r="E6">
-        <v>1.216708235750274</v>
+        <v>2.087172372497146</v>
       </c>
       <c r="F6">
-        <v>1.458017701547561</v>
+        <v>2.501120791218557</v>
       </c>
       <c r="G6">
-        <v>50.64108105217959</v>
+        <v>86.87100340068044</v>
       </c>
       <c r="H6">
-        <v>0.2209594499597836</v>
+        <v>0.3790394819788844</v>
       </c>
       <c r="I6">
-        <v>89.23161834705186</v>
+        <v>153.0701963666183</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>33.62441211209578</v>
+        <v>57.68017503271754</v>
       </c>
       <c r="C7">
-        <v>0.01426156676031437</v>
+        <v>0.02446465574575205</v>
       </c>
       <c r="D7">
-        <v>6.611070535391277</v>
+        <v>11.34079918970047</v>
       </c>
       <c r="E7">
-        <v>1.310301176961833</v>
+        <v>2.247724093458464</v>
       </c>
       <c r="F7">
-        <v>1.196880202762923</v>
+        <v>2.053158858462993</v>
       </c>
       <c r="G7">
-        <v>44.82026713813597</v>
+        <v>76.88583059600454</v>
       </c>
       <c r="H7">
-        <v>0.3682657499329728</v>
+        <v>0.631732469964807</v>
       </c>
       <c r="I7">
-        <v>87.94545848204108</v>
+        <v>150.8638848960545</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>37.34110015212019</v>
+        <v>64.05587659073808</v>
       </c>
       <c r="C8">
-        <v>0.011205516740247</v>
+        <v>0.01922222951451947</v>
       </c>
       <c r="D8">
-        <v>9.071003757862451</v>
+        <v>15.5606314463332</v>
       </c>
       <c r="E8">
-        <v>2.152637647865868</v>
+        <v>3.692689582110333</v>
       </c>
       <c r="F8">
-        <v>1.283926035691136</v>
+        <v>2.202479502714846</v>
       </c>
       <c r="G8">
-        <v>31.43239513583564</v>
+        <v>53.91993314524994</v>
       </c>
       <c r="H8">
-        <v>0.4050923249262701</v>
+        <v>0.6949057169612878</v>
       </c>
       <c r="I8">
-        <v>81.6973605710418</v>
+        <v>140.1457382136222</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>43.29360834122177</v>
+        <v>74.26696111725543</v>
       </c>
       <c r="C9">
-        <v>0.007130783380157186</v>
+        <v>0.01223232787287602</v>
       </c>
       <c r="D9">
-        <v>7.533545493817965</v>
+        <v>12.92323628593774</v>
       </c>
       <c r="E9">
-        <v>2.620602353923666</v>
+        <v>4.495448186916928</v>
       </c>
       <c r="F9">
-        <v>0.6310822887295413</v>
+        <v>1.082574670825942</v>
       </c>
       <c r="G9">
-        <v>27.3578253960051</v>
+        <v>46.93031218197678</v>
       </c>
       <c r="H9">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I9">
-        <v>81.5911009570514</v>
+        <v>139.9634577587716</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>48.49116427219339</v>
+        <v>83.18298126479989</v>
       </c>
       <c r="C10">
-        <v>0.006621441710145959</v>
+        <v>0.0113585901676706</v>
       </c>
       <c r="D10">
-        <v>4.766120618537895</v>
+        <v>8.175924997225922</v>
       </c>
       <c r="E10">
-        <v>3.837310589673939</v>
+        <v>6.582620559414075</v>
       </c>
       <c r="F10">
-        <v>0.4243484355250365</v>
+        <v>0.7279381407277886</v>
       </c>
       <c r="G10">
-        <v>30.85031374443125</v>
+        <v>52.92141586478233</v>
       </c>
       <c r="H10">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I10">
-        <v>88.44953225205826</v>
+        <v>151.7285859111107</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>33.71152198803385</v>
+        <v>57.82960553798364</v>
       </c>
       <c r="C11">
-        <v>0.00865880839019087</v>
+        <v>0.01485354098849232</v>
       </c>
       <c r="D11">
-        <v>2.459933222471175</v>
+        <v>4.21983225663273</v>
       </c>
       <c r="E11">
-        <v>3.74371764846238</v>
+        <v>6.422068838452756</v>
       </c>
       <c r="F11">
-        <v>0.4352291646410629</v>
+        <v>0.7466032212592699</v>
       </c>
       <c r="G11">
-        <v>31.43239513583564</v>
+        <v>53.91993314524994</v>
       </c>
       <c r="H11">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I11">
-        <v>71.86510911782089</v>
+        <v>123.2792430345598</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>26.74273191298811</v>
+        <v>45.87516511669501</v>
       </c>
       <c r="C12">
-        <v>0.01069617507023578</v>
+        <v>0.01834849180931403</v>
       </c>
       <c r="D12">
-        <v>3.689899833706761</v>
+        <v>6.329748384949096</v>
       </c>
       <c r="E12">
-        <v>2.807788236346786</v>
+        <v>4.816551628839566</v>
       </c>
       <c r="F12">
-        <v>0.2937796861327175</v>
+        <v>0.5039571743500075</v>
       </c>
       <c r="G12">
-        <v>43.65610435532728</v>
+        <v>74.88879603506939</v>
       </c>
       <c r="I12">
-        <v>77.20100019957189</v>
+        <v>132.4325668317124</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>23.66484962984289</v>
+        <v>40.59528726395921</v>
       </c>
       <c r="C13">
-        <v>0.011205516740247</v>
+        <v>0.01922222951451947</v>
       </c>
       <c r="D13">
-        <v>2.767424875280069</v>
+        <v>4.747311288711821</v>
       </c>
       <c r="E13">
-        <v>0.9359294121155949</v>
+        <v>1.605517209613189</v>
       </c>
       <c r="F13">
-        <v>0.3046604152487441</v>
+        <v>0.5226222548814891</v>
       </c>
       <c r="G13">
-        <v>25.611581221792</v>
+        <v>43.93476034057404</v>
       </c>
       <c r="I13">
-        <v>53.29565107101955</v>
+        <v>91.42472058725427</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>15.01193528666107</v>
+        <v>25.75185707419252</v>
       </c>
       <c r="C14">
-        <v>0.009168150060202095</v>
+        <v>0.01572727869369775</v>
       </c>
       <c r="D14">
-        <v>1.998695743257829</v>
+        <v>3.428613708514094</v>
       </c>
       <c r="E14">
-        <v>1.403894118173393</v>
+        <v>2.408275814419783</v>
       </c>
       <c r="F14">
-        <v>0.2502567696686112</v>
+        <v>0.4292968522240804</v>
       </c>
       <c r="G14">
-        <v>29.68615096162253</v>
+        <v>50.92438130384716</v>
       </c>
       <c r="I14">
-        <v>48.36010102944364</v>
+        <v>82.95815203189133</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>9.524013102562536</v>
+        <v>16.33773524242777</v>
       </c>
       <c r="C15">
-        <v>0.009168150060202095</v>
+        <v>0.01572727869369775</v>
       </c>
       <c r="D15">
-        <v>0.4612374792133451</v>
+        <v>0.791218548118637</v>
       </c>
       <c r="E15">
-        <v>0.8423364709040353</v>
+        <v>1.444965488651869</v>
       </c>
       <c r="F15">
-        <v>0.1196880202762923</v>
+        <v>0.2053158858462993</v>
       </c>
       <c r="G15">
-        <v>21.53701148196145</v>
+        <v>36.94513937730088</v>
       </c>
       <c r="I15">
-        <v>32.49345470497786</v>
+        <v>55.74010182103915</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>4.674896675343194</v>
+        <v>8.019437115947772</v>
       </c>
       <c r="C16">
-        <v>0.00865880839019087</v>
+        <v>0.01485354098849232</v>
       </c>
       <c r="D16">
-        <v>0.1537458264044484</v>
+        <v>0.2637395160395456</v>
       </c>
       <c r="E16">
-        <v>0.6551505884809166</v>
+        <v>1.123862046729232</v>
       </c>
       <c r="F16">
-        <v>0.2176145823205314</v>
+        <v>0.373301610629635</v>
       </c>
       <c r="G16">
-        <v>20.37284869915271</v>
+        <v>34.94810481636571</v>
       </c>
       <c r="H16">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I16">
-        <v>26.11974175508529</v>
+        <v>44.80647189369687</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>3.310175285646735</v>
+        <v>5.678359200112086</v>
       </c>
       <c r="C17">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D17">
-        <v>0.3074916528088968</v>
+        <v>0.5274790320790912</v>
       </c>
       <c r="E17">
-        <v>0.374371764846238</v>
+        <v>0.6422068838452752</v>
       </c>
       <c r="F17">
-        <v>0.2284953114365581</v>
+        <v>0.3919666911611169</v>
       </c>
       <c r="G17">
-        <v>19.79076730774834</v>
+        <v>33.94958753589812</v>
       </c>
       <c r="I17">
-        <v>24.01588539751687</v>
+        <v>41.19746298244254</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.293893399702561</v>
+        <v>3.935003305340831</v>
       </c>
       <c r="C18">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D18">
-        <v>0.4612374792133451</v>
+        <v>0.791218548118637</v>
       </c>
       <c r="F18">
-        <v>0.1958531240884783</v>
+        <v>0.3359714495666716</v>
       </c>
       <c r="G18">
-        <v>17.46244174213091</v>
+        <v>29.95551841402775</v>
       </c>
       <c r="I18">
-        <v>20.41648179515536</v>
+        <v>35.02295414328512</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.090637022513728</v>
+        <v>3.586332126386581</v>
       </c>
       <c r="C19">
-        <v>0.005093416700112275</v>
+        <v>0.008737377052054305</v>
       </c>
       <c r="D19">
-        <v>0.4612374792133451</v>
+        <v>0.791218548118637</v>
       </c>
       <c r="E19">
-        <v>0.187185882423119</v>
+        <v>0.3211034419226376</v>
       </c>
       <c r="F19">
-        <v>0.1849723949724517</v>
+        <v>0.3173063690351898</v>
       </c>
       <c r="G19">
-        <v>26.77574400460072</v>
+        <v>45.93179490150921</v>
       </c>
       <c r="I19">
-        <v>29.70487020042348</v>
+        <v>50.95649276402431</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>3.600541538773641</v>
+        <v>6.176460884332445</v>
       </c>
       <c r="C20">
-        <v>0.005093416700112275</v>
+        <v>0.008737377052054305</v>
       </c>
       <c r="D20">
-        <v>0.4612374792133451</v>
+        <v>0.791218548118637</v>
       </c>
       <c r="E20">
-        <v>0.374371764846238</v>
+        <v>0.6422068838452752</v>
       </c>
       <c r="F20">
-        <v>0.2828989570166908</v>
+        <v>0.4852920938185256</v>
       </c>
       <c r="G20">
-        <v>48.89483687796653</v>
+        <v>83.87545155927768</v>
       </c>
       <c r="H20">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I20">
-        <v>53.65580660950986</v>
+        <v>92.0425405934411</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>11.8179065022651</v>
+        <v>20.27273854776859</v>
       </c>
       <c r="C21">
-        <v>0.005093416700112275</v>
+        <v>0.008737377052054305</v>
       </c>
       <c r="D21">
-        <v>1.537458264044483</v>
+        <v>2.637395160395457</v>
       </c>
       <c r="E21">
-        <v>1.87185882423119</v>
+        <v>3.211034419226378</v>
       </c>
       <c r="F21">
-        <v>0.3373026025968237</v>
+        <v>0.5786174964759345</v>
       </c>
       <c r="G21">
-        <v>71.01392975133237</v>
+        <v>121.8191082170462</v>
       </c>
       <c r="H21">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I21">
-        <v>86.62037593616337</v>
+        <v>148.5908044649611</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>26.39429240923581</v>
+        <v>45.27744309563061</v>
       </c>
       <c r="C22">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D22">
-        <v>4.151137312920103</v>
+        <v>7.120966933067733</v>
       </c>
       <c r="E22">
-        <v>4.024496472097059</v>
+        <v>6.903724001336712</v>
       </c>
       <c r="F22">
-        <v>0.9357427039782854</v>
+        <v>1.605196925707431</v>
       </c>
       <c r="G22">
-        <v>76.83474366537597</v>
+        <v>131.8042810217221</v>
       </c>
       <c r="H22">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I22">
-        <v>112.4917935969405</v>
+        <v>192.9712948670921</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>41.20297131870804</v>
+        <v>70.68062899086884</v>
       </c>
       <c r="C23">
-        <v>0.007130783380157186</v>
+        <v>0.01223232787287602</v>
       </c>
       <c r="D23">
-        <v>5.996087229773482</v>
+        <v>10.28584112554229</v>
       </c>
       <c r="E23">
-        <v>3.650124707250821</v>
+        <v>6.261517117491437</v>
       </c>
       <c r="F23">
-        <v>1.033669266022524</v>
+        <v>1.773182650490767</v>
       </c>
       <c r="G23">
-        <v>65.19311583728874</v>
+        <v>111.8339354123702</v>
       </c>
       <c r="H23">
-        <v>0.2209594499597836</v>
+        <v>0.3790394819788844</v>
       </c>
       <c r="I23">
-        <v>117.3040585923835</v>
+        <v>201.2263771066153</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>48.78153052532031</v>
+        <v>83.68108294902018</v>
       </c>
       <c r="C24">
-        <v>0.01528025010033683</v>
+        <v>0.02621213115616291</v>
       </c>
       <c r="D24">
-        <v>6.764816361795726</v>
+        <v>11.60453870574</v>
       </c>
       <c r="E24">
-        <v>3.930903530885499</v>
+        <v>6.743172280375393</v>
       </c>
       <c r="F24">
-        <v>1.370971868619348</v>
+        <v>2.351800146966701</v>
       </c>
       <c r="G24">
-        <v>63.44687166307565</v>
+        <v>108.8383835709675</v>
       </c>
       <c r="H24">
-        <v>0.2577860249530809</v>
+        <v>0.442212728975365</v>
       </c>
       <c r="I24">
-        <v>124.5681602247499</v>
+        <v>213.6874025132012</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>31.59184834020744</v>
+        <v>54.19346324317502</v>
       </c>
       <c r="C25">
-        <v>0.01018683340022455</v>
+        <v>0.01747475410410861</v>
       </c>
       <c r="D25">
-        <v>7.072308014604623</v>
+        <v>12.1320177378191</v>
       </c>
       <c r="E25">
-        <v>2.059044706654308</v>
+        <v>3.532137861149015</v>
       </c>
       <c r="F25">
-        <v>1.273045306575109</v>
+        <v>2.183814422183366</v>
       </c>
       <c r="G25">
-        <v>67.52144140290615</v>
+        <v>115.8280045342406</v>
       </c>
       <c r="H25">
-        <v>0.2946125999463782</v>
+        <v>0.5053859759718456</v>
       </c>
       <c r="I25">
-        <v>109.8224872042942</v>
+        <v>188.3922985286431</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>25.98777965485813</v>
+        <v>44.58010073772208</v>
       </c>
       <c r="C26">
-        <v>0.01375222509030315</v>
+        <v>0.02359091804054661</v>
       </c>
       <c r="D26">
-        <v>5.996087229773482</v>
+        <v>10.28584112554229</v>
       </c>
       <c r="E26">
-        <v>0.8423364709040353</v>
+        <v>1.444965488651869</v>
       </c>
       <c r="F26">
-        <v>1.566824992707826</v>
+        <v>2.687771596533373</v>
       </c>
       <c r="G26">
-        <v>55.29773218341451</v>
+        <v>94.85914164442123</v>
       </c>
       <c r="H26">
-        <v>0.2577860249530809</v>
+        <v>0.442212728975365</v>
       </c>
       <c r="I26">
-        <v>89.96229878170138</v>
+        <v>154.3236242398868</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>25.90066977892007</v>
+        <v>44.43067023245596</v>
       </c>
       <c r="C27">
-        <v>0.01578959177034805</v>
+        <v>0.02708586886136834</v>
       </c>
       <c r="D27">
-        <v>4.458628965729003</v>
+        <v>7.64844596514683</v>
       </c>
       <c r="E27">
-        <v>1.029522353327154</v>
+        <v>1.766068930574507</v>
       </c>
       <c r="F27">
-        <v>1.708274471216172</v>
+        <v>2.930417643442636</v>
       </c>
       <c r="G27">
-        <v>55.87981357481885</v>
+        <v>95.85765892488877</v>
       </c>
       <c r="H27">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I27">
-        <v>89.1400050357548</v>
+        <v>152.913040553356</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>24.36172863734748</v>
+        <v>41.79073130608808</v>
       </c>
       <c r="C28">
-        <v>0.01375222509030315</v>
+        <v>0.02359091804054661</v>
       </c>
       <c r="D28">
-        <v>4.766120618537895</v>
+        <v>8.175924997225922</v>
       </c>
       <c r="E28">
-        <v>1.591080000596511</v>
+        <v>2.729379256342421</v>
       </c>
       <c r="F28">
-        <v>1.273045306575109</v>
+        <v>2.183814422183366</v>
       </c>
       <c r="G28">
-        <v>43.65610435532728</v>
+        <v>74.88879603506939</v>
       </c>
       <c r="H28">
-        <v>0.2946125999463782</v>
+        <v>0.5053859759718456</v>
       </c>
       <c r="I28">
-        <v>75.95644374342096</v>
+        <v>130.2976229109216</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>30.11098044926022</v>
+        <v>51.65314465365118</v>
       </c>
       <c r="C29">
-        <v>0.01324288342029192</v>
+        <v>0.02271718033534119</v>
       </c>
       <c r="D29">
-        <v>5.688595576964588</v>
+        <v>9.758362093463193</v>
       </c>
       <c r="E29">
-        <v>1.216708235750274</v>
+        <v>2.087172372497146</v>
       </c>
       <c r="F29">
-        <v>1.425375514199481</v>
+        <v>2.44512554962411</v>
       </c>
       <c r="G29">
-        <v>55.29773218341451</v>
+        <v>94.85914164442123</v>
       </c>
       <c r="H29">
-        <v>0.2209594499597836</v>
+        <v>0.3790394819788844</v>
       </c>
       <c r="I29">
-        <v>93.97359429296914</v>
+        <v>161.2047029759711</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>26.24910928267236</v>
+        <v>45.02839225352041</v>
       </c>
       <c r="C30">
-        <v>0.01782695845039296</v>
+        <v>0.03058081968219006</v>
       </c>
       <c r="D30">
-        <v>5.381103924155695</v>
+        <v>9.230883061384104</v>
       </c>
       <c r="E30">
-        <v>1.123115294538714</v>
+        <v>1.926620651535826</v>
       </c>
       <c r="F30">
-        <v>1.240403119227029</v>
+        <v>2.12781918058892</v>
       </c>
       <c r="G30">
-        <v>48.89483687796653</v>
+        <v>83.87545155927768</v>
       </c>
       <c r="H30">
-        <v>0.2946125999463782</v>
+        <v>0.5053859759718456</v>
       </c>
       <c r="I30">
-        <v>83.20100805695711</v>
+        <v>142.725133501961</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>32.84042322865314</v>
+        <v>56.33530048532254</v>
       </c>
       <c r="C31">
-        <v>0.01731761678038174</v>
+        <v>0.02970708197698463</v>
       </c>
       <c r="D31">
-        <v>7.687291320222417</v>
+        <v>13.18697580197728</v>
       </c>
       <c r="E31">
-        <v>1.591080000596511</v>
+        <v>2.729379256342421</v>
       </c>
       <c r="F31">
-        <v>1.153357286298818</v>
+        <v>1.978498536337066</v>
       </c>
       <c r="G31">
-        <v>43.65610435532728</v>
+        <v>74.88879603506939</v>
       </c>
       <c r="H31">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I31">
-        <v>87.01922695786514</v>
+        <v>149.2750036910187</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>40.85453181495575</v>
+        <v>70.08290696980444</v>
       </c>
       <c r="C32">
-        <v>0.01324288342029192</v>
+        <v>0.02271718033534119</v>
       </c>
       <c r="D32">
-        <v>10.30097036909804</v>
+        <v>17.67054757464955</v>
       </c>
       <c r="E32">
-        <v>2.246230589077429</v>
+        <v>3.853241303071652</v>
       </c>
       <c r="F32">
-        <v>1.218641660994976</v>
+        <v>2.090489019525956</v>
       </c>
       <c r="G32">
-        <v>34.92488348426182</v>
+        <v>59.91103682805549</v>
       </c>
       <c r="H32">
-        <v>0.5155720499061619</v>
+        <v>0.8844254579507299</v>
       </c>
       <c r="I32">
-        <v>90.07407285171446</v>
+        <v>154.5153643333932</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>48.78153052532031</v>
+        <v>83.68108294902018</v>
       </c>
       <c r="C33">
-        <v>0.01324288342029192</v>
+        <v>0.02271718033534119</v>
       </c>
       <c r="D33">
-        <v>6.764816361795726</v>
+        <v>11.60453870574</v>
       </c>
       <c r="E33">
-        <v>3.369345883616141</v>
+        <v>5.779861954607477</v>
       </c>
       <c r="F33">
-        <v>0.8051739545859663</v>
+        <v>1.38121595932965</v>
       </c>
       <c r="G33">
-        <v>26.77574400460072</v>
+        <v>45.93179490150921</v>
       </c>
       <c r="H33">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I33">
-        <v>86.65715991331234</v>
+        <v>148.6539046385278</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>50.58180129470714</v>
+        <v>86.76931339118647</v>
       </c>
       <c r="C34">
-        <v>0.007130783380157186</v>
+        <v>0.01223232787287602</v>
       </c>
       <c r="D34">
-        <v>4.612374792133451</v>
+        <v>7.91218548118637</v>
       </c>
       <c r="E34">
-        <v>4.211682354520177</v>
+        <v>7.22482744325935</v>
       </c>
       <c r="F34">
-        <v>0.4896328102211958</v>
+        <v>0.839928623916679</v>
       </c>
       <c r="G34">
-        <v>30.85031374443125</v>
+        <v>52.92141586478233</v>
       </c>
       <c r="H34">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I34">
-        <v>90.78976235438667</v>
+        <v>155.7430763792005</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>33.94381499053538</v>
+        <v>58.2280868853599</v>
       </c>
       <c r="C35">
-        <v>0.008149466720179641</v>
+        <v>0.01397980328328688</v>
       </c>
       <c r="D35">
-        <v>2.306187396066726</v>
+        <v>3.956092740593185</v>
       </c>
       <c r="E35">
-        <v>3.462938824827702</v>
+        <v>5.940413675568794</v>
       </c>
       <c r="F35">
-        <v>0.5113942684532489</v>
+        <v>0.877258784979642</v>
       </c>
       <c r="G35">
-        <v>34.92488348426182</v>
+        <v>59.91103682805549</v>
       </c>
       <c r="H35">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I35">
-        <v>75.19419500585836</v>
+        <v>128.9900419648368</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>28.80433231018913</v>
+        <v>49.41168707465956</v>
       </c>
       <c r="C36">
-        <v>0.009168150060202095</v>
+        <v>0.01572727869369775</v>
       </c>
       <c r="D36">
-        <v>3.536154007302311</v>
+        <v>6.066008868909549</v>
       </c>
       <c r="E36">
-        <v>2.901381177558344</v>
+        <v>4.977103349800887</v>
       </c>
       <c r="F36">
-        <v>0.4134677064090098</v>
+        <v>0.7092730601963068</v>
       </c>
       <c r="G36">
-        <v>44.82026713813597</v>
+        <v>76.88583059600454</v>
       </c>
       <c r="H36">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I36">
-        <v>80.59525021463487</v>
+        <v>138.255149969254</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>24.56498501453629</v>
+        <v>42.13940248504231</v>
       </c>
       <c r="C37">
-        <v>0.009677491730213324</v>
+        <v>0.01660101639890318</v>
       </c>
       <c r="D37">
-        <v>3.228662354493416</v>
+        <v>5.53852983683046</v>
       </c>
       <c r="E37">
-        <v>1.310301176961833</v>
+        <v>2.247724093458464</v>
       </c>
       <c r="F37">
-        <v>0.2611374987846379</v>
+        <v>0.447961932755562</v>
       </c>
       <c r="G37">
-        <v>25.611581221792</v>
+        <v>43.93476034057404</v>
       </c>
       <c r="I37">
-        <v>54.98634475829839</v>
+        <v>94.32497970505975</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>10.22089211006711</v>
+        <v>17.53317928455661</v>
       </c>
       <c r="C38">
-        <v>0.008149466720179641</v>
+        <v>0.01397980328328688</v>
       </c>
       <c r="D38">
-        <v>0.4612374792133451</v>
+        <v>0.791218548118637</v>
       </c>
       <c r="E38">
-        <v>1.123115294538714</v>
+        <v>1.926620651535826</v>
       </c>
       <c r="F38">
-        <v>0.1958531240884783</v>
+        <v>0.3359714495666716</v>
       </c>
       <c r="G38">
-        <v>16.88036035072654</v>
+        <v>28.95700113356016</v>
       </c>
       <c r="I38">
-        <v>28.88960782535437</v>
+        <v>49.5579708706212</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>6.562277320668091</v>
+        <v>11.2570980633801</v>
       </c>
       <c r="C39">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D39">
-        <v>0.4612374792133451</v>
+        <v>0.791218548118637</v>
       </c>
       <c r="E39">
-        <v>0.5615576472693572</v>
+        <v>0.9633103257679131</v>
       </c>
       <c r="F39">
-        <v>0.09792656204423915</v>
+        <v>0.1679857247833358</v>
       </c>
       <c r="G39">
-        <v>16.29827895932219</v>
+        <v>27.95848385309256</v>
       </c>
       <c r="I39">
-        <v>23.98586204354732</v>
+        <v>41.14596015448939</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>6.62035057129347</v>
+        <v>11.35671840022417</v>
       </c>
       <c r="C40">
-        <v>0.009168150060202095</v>
+        <v>0.01572727869369775</v>
       </c>
       <c r="D40">
-        <v>0.3074916528088968</v>
+        <v>0.5274790320790912</v>
       </c>
       <c r="E40">
-        <v>0.6551505884809166</v>
+        <v>1.123862046729232</v>
       </c>
       <c r="F40">
-        <v>0.1632109367403986</v>
+        <v>0.2799762079722264</v>
       </c>
       <c r="G40">
-        <v>23.8653370475789</v>
+        <v>40.93920849917124</v>
       </c>
       <c r="I40">
-        <v>31.62070894696279</v>
+        <v>54.24297146486966</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>3.135955533770591</v>
+        <v>5.379498189579866</v>
       </c>
       <c r="C41">
-        <v>0.00865880839019087</v>
+        <v>0.01485354098849232</v>
       </c>
       <c r="D41">
-        <v>0.1537458264044484</v>
+        <v>0.2637395160395456</v>
       </c>
       <c r="E41">
-        <v>0.4679647060577974</v>
+        <v>0.8027586048065944</v>
       </c>
       <c r="F41">
-        <v>0.1740916658564251</v>
+        <v>0.2986412885037081</v>
       </c>
       <c r="G41">
-        <v>24.44741843898327</v>
+        <v>41.93772577963884</v>
       </c>
       <c r="I41">
-        <v>28.38783497946272</v>
+        <v>48.69721691955705</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>3.07788228314521</v>
+        <v>5.279877852735799</v>
       </c>
       <c r="C42">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="F42">
-        <v>0.1740916658564251</v>
+        <v>0.2986412885037081</v>
       </c>
       <c r="G42">
-        <v>21.53701148196145</v>
+        <v>36.94513937730088</v>
       </c>
       <c r="I42">
-        <v>24.79458818933321</v>
+        <v>42.53326963329765</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.555223027516778</v>
+        <v>4.383294821139153</v>
       </c>
       <c r="C43">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D43">
-        <v>0.1537458264044484</v>
+        <v>0.2637395160395456</v>
       </c>
       <c r="E43">
-        <v>0.2807788236346786</v>
+        <v>0.4816551628839565</v>
       </c>
       <c r="F43">
-        <v>0.1632109367403986</v>
+        <v>0.2799762079722264</v>
       </c>
       <c r="G43">
-        <v>29.10406957021817</v>
+        <v>49.9258640233796</v>
       </c>
       <c r="I43">
-        <v>32.26161225954457</v>
+        <v>55.34239337076133</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>4.152237419714765</v>
+        <v>7.122854084351124</v>
       </c>
       <c r="C44">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D44">
-        <v>0.6149833056177937</v>
+        <v>1.054958064158182</v>
       </c>
       <c r="E44">
-        <v>0.374371764846238</v>
+        <v>0.6422068838452752</v>
       </c>
       <c r="F44">
-        <v>0.2720182279006643</v>
+        <v>0.4666270132870438</v>
       </c>
       <c r="G44">
-        <v>40.16361600690109</v>
+        <v>68.89769235226379</v>
       </c>
       <c r="I44">
-        <v>45.58028277500063</v>
+        <v>78.18958082413664</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>11.99212625414124</v>
+        <v>20.57159955830081</v>
       </c>
       <c r="C45">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D45">
-        <v>1.998695743257829</v>
+        <v>3.428613708514094</v>
       </c>
       <c r="E45">
-        <v>1.684672941808071</v>
+        <v>2.889930977303738</v>
       </c>
       <c r="F45">
-        <v>0.4896328102211958</v>
+        <v>0.839928623916679</v>
       </c>
       <c r="G45">
-        <v>84.4018017536327</v>
+        <v>144.7850056678007</v>
       </c>
       <c r="H45">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I45">
-        <v>100.6068121280744</v>
+        <v>172.5834942090638</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>27.17828129267846</v>
+        <v>46.62231764302555</v>
       </c>
       <c r="C46">
-        <v>0.001528025010033683</v>
+        <v>0.002621213115616291</v>
       </c>
       <c r="D46">
-        <v>4.766120618537895</v>
+        <v>8.175924997225922</v>
       </c>
       <c r="E46">
-        <v>4.492461178154858</v>
+        <v>7.706482606143305</v>
       </c>
       <c r="F46">
-        <v>1.033669266022524</v>
+        <v>1.773182650490767</v>
       </c>
       <c r="G46">
-        <v>93.13302262469817</v>
+        <v>159.7627648748146</v>
       </c>
       <c r="H46">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I46">
-        <v>130.7155627300818</v>
+        <v>224.2328137258052</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>39.40270054932122</v>
+        <v>67.59239854870263</v>
       </c>
       <c r="C47">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D47">
-        <v>4.612374792133451</v>
+        <v>7.91218548118637</v>
       </c>
       <c r="E47">
-        <v>3.74371764846238</v>
+        <v>6.422068838452756</v>
       </c>
       <c r="F47">
-        <v>0.9575041622103386</v>
+        <v>1.642527086770394</v>
       </c>
       <c r="G47">
-        <v>58.7902205318407</v>
+        <v>100.8502453272267</v>
       </c>
       <c r="H47">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I47">
-        <v>107.6947252922947</v>
+        <v>184.7422814189629</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>44.57121985498014</v>
+        <v>76.45860852782499</v>
       </c>
       <c r="C48">
-        <v>0.007130783380157186</v>
+        <v>0.01223232787287602</v>
       </c>
       <c r="D48">
-        <v>5.073612271346795</v>
+        <v>8.703404029305007</v>
       </c>
       <c r="E48">
-        <v>2.994974118769904</v>
+        <v>5.137655070762202</v>
       </c>
       <c r="F48">
-        <v>1.098953640718684</v>
+        <v>1.885173133679657</v>
       </c>
       <c r="G48">
-        <v>52.96940661779708</v>
+        <v>90.86507252255085</v>
       </c>
       <c r="H48">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I48">
-        <v>106.7889504369794</v>
+        <v>183.1884921059886</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>31.9983610945851</v>
+        <v>54.8908056010835</v>
       </c>
       <c r="C49">
-        <v>0.00865880839019087</v>
+        <v>0.01485354098849232</v>
       </c>
       <c r="D49">
-        <v>5.842341403369037</v>
+        <v>10.02210160950274</v>
       </c>
       <c r="E49">
-        <v>2.059044706654308</v>
+        <v>3.532137861149015</v>
       </c>
       <c r="F49">
-        <v>1.381852597735375</v>
+        <v>2.370465227498183</v>
       </c>
       <c r="G49">
-        <v>71.59601114273673</v>
+        <v>122.8176254975137</v>
       </c>
       <c r="H49">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I49">
-        <v>112.9599229034573</v>
+        <v>193.7743358317286</v>
       </c>
     </row>
   </sheetData>
